--- a/filtered_df2.xlsx
+++ b/filtered_df2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="392">
   <si>
     <t>office</t>
   </si>
@@ -406,6 +406,9 @@
     <t>Hôpital Esperance de Pilate</t>
   </si>
   <si>
+    <t>Clinique Medico-Chirurgicale Dugue</t>
+  </si>
+  <si>
     <t>Clinique J-Benjamin</t>
   </si>
   <si>
@@ -463,6 +466,9 @@
     <t>PIL/HOEP/ST02070</t>
   </si>
   <si>
+    <t>CAP/CMCD/ST00091</t>
+  </si>
+  <si>
     <t>CAP/SECH/ST00833</t>
   </si>
   <si>
@@ -478,12 +484,12 @@
     <t>ENN/HTLO/ST00679</t>
   </si>
   <si>
+    <t>GON/CSFA/ST01470</t>
+  </si>
+  <si>
     <t>GON/CSFA/ST01097</t>
   </si>
   <si>
-    <t>GON/CSFA/ST01470</t>
-  </si>
-  <si>
     <t>GON/CDIR/ST02441</t>
   </si>
   <si>
@@ -496,30 +502,30 @@
     <t>GRO/HAMG/ST00649</t>
   </si>
   <si>
+    <t>SMA/CSSM/ST00620</t>
+  </si>
+  <si>
     <t>SMA/CSSM/ST00986</t>
   </si>
   <si>
-    <t>SMA/CSSM/ST00620</t>
+    <t>STM/CSPP/ST02015</t>
   </si>
   <si>
     <t>STM/CSPP/ST02486</t>
   </si>
   <si>
-    <t>STM/CSPP/ST02015</t>
+    <t>LAG/HWLG/ST00813</t>
   </si>
   <si>
     <t>LAG/HWLG/ST01322</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST00813</t>
+    <t>LAG/HWLG/ST01655</t>
   </si>
   <si>
     <t>LAG/HWLG/ST01571</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST01655</t>
-  </si>
-  <si>
     <t>PAP/CMSP/ST00614</t>
   </si>
   <si>
@@ -550,6 +556,9 @@
     <t>PIL/HOEP</t>
   </si>
   <si>
+    <t>CAP/CMCD</t>
+  </si>
+  <si>
     <t>CAP/SECH</t>
   </si>
   <si>
@@ -607,6 +616,9 @@
     <t>Lizanne</t>
   </si>
   <si>
+    <t>Judith</t>
+  </si>
+  <si>
     <t>Didier</t>
   </si>
   <si>
@@ -622,12 +634,12 @@
     <t>Altanania</t>
   </si>
   <si>
+    <t>Mercilia</t>
+  </si>
+  <si>
     <t>Dieugrace</t>
   </si>
   <si>
-    <t>Mercilia</t>
-  </si>
-  <si>
     <t>Angelène</t>
   </si>
   <si>
@@ -640,30 +652,30 @@
     <t>EXILIA</t>
   </si>
   <si>
+    <t>Solange</t>
+  </si>
+  <si>
     <t>Rosemartha</t>
   </si>
   <si>
-    <t>Solange</t>
+    <t>Eveline</t>
   </si>
   <si>
     <t>Pierre</t>
   </si>
   <si>
-    <t>Eveline</t>
+    <t>Melissa</t>
   </si>
   <si>
     <t xml:space="preserve">Evanesque </t>
   </si>
   <si>
-    <t>Melissa</t>
+    <t>Joinica</t>
   </si>
   <si>
     <t xml:space="preserve">Judette </t>
   </si>
   <si>
-    <t>Joinica</t>
-  </si>
-  <si>
     <t>Rosita</t>
   </si>
   <si>
@@ -694,6 +706,9 @@
     <t>Tivil</t>
   </si>
   <si>
+    <t>Elvait</t>
+  </si>
+  <si>
     <t>Myrlande</t>
   </si>
   <si>
@@ -706,12 +721,12 @@
     <t>Sime</t>
   </si>
   <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
     <t>Cetoute</t>
   </si>
   <si>
-    <t>Ferdinand</t>
-  </si>
-  <si>
     <t>Azema</t>
   </si>
   <si>
@@ -724,28 +739,28 @@
     <t>RICHE</t>
   </si>
   <si>
+    <t>Elie</t>
+  </si>
+  <si>
     <t>Merveus</t>
   </si>
   <si>
-    <t>Elie</t>
+    <t>PIERRE</t>
   </si>
   <si>
     <t>Sheilla</t>
   </si>
   <si>
-    <t>PIERRE</t>
+    <t>Belfort</t>
   </si>
   <si>
     <t>Nicolas</t>
   </si>
   <si>
-    <t>Belfort</t>
+    <t>JEAN</t>
   </si>
   <si>
     <t>LAURENT</t>
-  </si>
-  <si>
-    <t>JEAN</t>
   </si>
   <si>
     <t>Merisier</t>
@@ -773,6 +788,9 @@
 Mere Lisette jean</t>
   </si>
   <si>
+    <t>Galwa</t>
+  </si>
+  <si>
     <t>Camp-Coq nan marguerite, bo pye mapou a</t>
   </si>
   <si>
@@ -785,10 +803,10 @@
     <t>Dubedou</t>
   </si>
   <si>
+    <t>Bayonnais</t>
+  </si>
+  <si>
     <t>Boukan Toman Bayonnais</t>
-  </si>
-  <si>
-    <t>Bayonnais</t>
   </si>
   <si>
     <t>Bas Jubilé</t>
@@ -804,13 +822,13 @@
     <t>K-MADAM,RAVINE GROS MORNE FACE L EAU TRAITEE</t>
   </si>
   <si>
-    <t>Platana Savanne à Pied</t>
-  </si>
-  <si>
     <t>Licanta pi haut eglise pasteur Dieuseul_x000D_
 Platana</t>
   </si>
   <si>
+    <t>Platana Savanne à Pied</t>
+  </si>
+  <si>
     <t>Pont sondé</t>
   </si>
   <si>
@@ -853,6 +871,9 @@
     <t>43991888</t>
   </si>
   <si>
+    <t>48697228</t>
+  </si>
+  <si>
     <t>33924464</t>
   </si>
   <si>
@@ -877,12 +898,12 @@
     <t>47142223</t>
   </si>
   <si>
+    <t>43412559</t>
+  </si>
+  <si>
     <t>50948473418</t>
   </si>
   <si>
-    <t>43412559</t>
-  </si>
-  <si>
     <t>31559104</t>
   </si>
   <si>
@@ -934,6 +955,9 @@
     <t>Femmes vertueuses II</t>
   </si>
   <si>
+    <t>Orchidee 3</t>
+  </si>
+  <si>
     <t>lauriers</t>
   </si>
   <si>
@@ -961,18 +985,18 @@
     <t>ETOILES DE GROS-MORNE</t>
   </si>
   <si>
+    <t>Fanm Vanyan de SMA</t>
+  </si>
+  <si>
     <t>Ambassadrice 3</t>
   </si>
   <si>
-    <t>Fanm Vanyan de SMA</t>
+    <t>Tet ansanb</t>
   </si>
   <si>
     <t>Femmes courageuses de Pierre Payen</t>
   </si>
   <si>
-    <t>Tet ansanb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Femmes solides </t>
   </si>
   <si>
@@ -1099,6 +1123,9 @@
     <t>2024-10-05</t>
   </si>
   <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
     <t>2025-07-08</t>
   </si>
   <si>
@@ -1114,12 +1141,12 @@
     <t>2024-12-06</t>
   </si>
   <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
     <t>2024-03-31</t>
   </si>
   <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
     <t>2025-06-22</t>
   </si>
   <si>
@@ -1132,28 +1159,28 @@
     <t>2024-10-22</t>
   </si>
   <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
     <t>2025-01-31</t>
   </si>
   <si>
-    <t>2024-07-22</t>
+    <t>2025-07-13</t>
   </si>
   <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-13</t>
+    <t>2025-04-20</t>
   </si>
   <si>
     <t>2025-07-03</t>
   </si>
   <si>
-    <t>2025-04-20</t>
+    <t>2025-05-27</t>
   </si>
   <si>
     <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
   </si>
   <si>
     <t>2024-12-02</t>
@@ -1529,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI30"/>
+  <dimension ref="A1:CI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1821,19 +1848,19 @@
         <v>43920</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2">
         <v>43525.67803240741</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M2" s="3">
         <v>32403</v>
@@ -1842,37 +1869,37 @@
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P2" t="s">
         <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="X2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1893,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO2" s="3">
         <v>45763</v>
       </c>
       <c r="AP2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AX2" s="3">
         <v>45418</v>
@@ -1917,10 +1944,10 @@
         <v>45429.55692129629</v>
       </c>
       <c r="BB2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BC2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="BD2" s="3">
         <v>45394</v>
@@ -1929,73 +1956,73 @@
         <v>10</v>
       </c>
       <c r="BF2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BG2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="BI2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BJ2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BN2" s="3">
         <v>45440</v>
       </c>
       <c r="BO2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="BP2" s="3">
         <v>45490</v>
       </c>
       <c r="BQ2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BT2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BU2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BW2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BX2" s="3">
         <v>44166</v>
       </c>
       <c r="BZ2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CB2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="CC2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="CD2" s="2">
         <v>45418</v>
       </c>
       <c r="CE2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CF2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH2" s="3">
         <v>45708</v>
@@ -2027,19 +2054,19 @@
         <v>187714</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2">
         <v>45348.70815972222</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M3" s="3">
         <v>34151</v>
@@ -2048,37 +2075,37 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P3" t="s">
         <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -2090,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2102,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO3" s="3">
         <v>45618</v>
       </c>
       <c r="AP3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AV3">
         <v>1</v>
@@ -2129,37 +2156,37 @@
         <v>45348.7141087963</v>
       </c>
       <c r="BB3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="CD3" s="2">
         <v>45373</v>
       </c>
       <c r="CE3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH3" s="3">
         <v>45377</v>
       </c>
       <c r="CI3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:87">
@@ -2185,19 +2212,19 @@
         <v>26634</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I4" s="2">
         <v>42562.60099537037</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M4" s="3">
         <v>27701</v>
@@ -2206,37 +2233,37 @@
         <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P4" t="s">
         <v>129</v>
       </c>
       <c r="Q4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="X4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -2248,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2260,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO4" s="3">
         <v>45776</v>
       </c>
       <c r="AP4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AX4" s="3">
         <v>45540</v>
@@ -2284,10 +2311,10 @@
         <v>45422.63403935185</v>
       </c>
       <c r="BB4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BC4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="BD4" s="3">
         <v>45490</v>
@@ -2296,76 +2323,76 @@
         <v>10</v>
       </c>
       <c r="BF4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BG4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="BI4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BJ4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="BK4">
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BN4" s="3">
         <v>45533</v>
       </c>
       <c r="BP4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="BQ4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BT4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BU4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="BW4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BX4" s="3">
         <v>44162</v>
       </c>
       <c r="BZ4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CB4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="CC4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="CD4" s="2">
         <v>45570</v>
       </c>
       <c r="CE4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CF4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH4" s="3">
         <v>45408</v>
       </c>
       <c r="CI4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:87">
@@ -2373,7 +2400,7 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -2388,219 +2415,210 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>204117</v>
+        <v>209301</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I5" s="2">
-        <v>45741.53994212963</v>
+        <v>45832.54972222223</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M5" s="3">
-        <v>33496</v>
+        <v>31818</v>
       </c>
       <c r="N5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P5" t="s">
         <v>130</v>
       </c>
       <c r="Q5" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" t="s">
+        <v>279</v>
+      </c>
+      <c r="S5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U5" t="s">
+        <v>279</v>
+      </c>
+      <c r="V5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W5" t="s">
+        <v>279</v>
+      </c>
+      <c r="X5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>45818</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>45693</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>45563</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>45819</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>45832.55387731481</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB5" t="s">
         <v>272</v>
       </c>
-      <c r="R5" t="s">
-        <v>273</v>
-      </c>
-      <c r="S5" t="s">
-        <v>273</v>
-      </c>
-      <c r="T5" t="s">
-        <v>273</v>
-      </c>
-      <c r="U5" t="s">
-        <v>273</v>
-      </c>
-      <c r="V5" t="s">
-        <v>273</v>
-      </c>
-      <c r="W5" t="s">
-        <v>273</v>
-      </c>
-      <c r="X5" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>45805</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>45846</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>45566</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>45685</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>45749.5670949074</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>266</v>
-      </c>
       <c r="CC5" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="CD5" s="2">
-        <v>45846</v>
+        <v>45843</v>
       </c>
       <c r="CE5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG5" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH5" s="3">
-        <v>45726</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>45789</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:87">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>131</v>
       </c>
       <c r="G6">
-        <v>194528</v>
+        <v>204117</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2">
-        <v>45489.76224537037</v>
+        <v>45741.53994212963</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M6" s="3">
-        <v>32119</v>
+        <v>33496</v>
       </c>
       <c r="N6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P6" t="s">
         <v>131</v>
       </c>
       <c r="Q6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>300</v>
       </c>
       <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>45474</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2615,100 +2633,64 @@
         <v>0</v>
       </c>
       <c r="AN6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO6" s="3">
-        <v>45750</v>
+        <v>45805</v>
       </c>
       <c r="AP6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AV6">
         <v>1</v>
       </c>
       <c r="AX6" s="3">
-        <v>45618</v>
+        <v>45846</v>
       </c>
       <c r="AY6" s="3">
-        <v>45268</v>
+        <v>45566</v>
       </c>
       <c r="AZ6" s="3">
-        <v>45474</v>
+        <v>45685</v>
       </c>
       <c r="BA6" s="2">
-        <v>45489.76390046296</v>
+        <v>45749.5670949074</v>
       </c>
       <c r="BB6" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>331</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>45550</v>
-      </c>
-      <c r="BE6">
-        <v>11</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>335</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>266</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>340</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="BL6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM6" t="s">
-        <v>301</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>45580</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>297</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="CB6" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="CC6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="CD6" s="2">
-        <v>45550</v>
+        <v>45846</v>
       </c>
       <c r="CE6" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CF6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH6" s="3">
-        <v>45561</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>297</v>
+        <v>45726</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>45789</v>
       </c>
     </row>
     <row r="7" spans="1:87">
@@ -2716,79 +2698,82 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>132</v>
       </c>
       <c r="G7">
-        <v>201257</v>
+        <v>194528</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I7" s="2">
-        <v>45680.79515046296</v>
+        <v>45489.76224537037</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M7" s="3">
-        <v>33691</v>
+        <v>32119</v>
       </c>
       <c r="N7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="P7" t="s">
         <v>132</v>
       </c>
       <c r="Q7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X7" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>285</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2803,67 +2788,100 @@
         <v>0</v>
       </c>
       <c r="AN7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO7" s="3">
-        <v>45729</v>
+        <v>45750</v>
       </c>
       <c r="AP7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AV7">
         <v>1</v>
       </c>
       <c r="AX7" s="3">
-        <v>45839</v>
+        <v>45618</v>
       </c>
       <c r="AY7" s="3">
-        <v>45569</v>
+        <v>45268</v>
       </c>
       <c r="AZ7" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="BA7" s="2">
-        <v>45680.86460648148</v>
+        <v>45489.76390046296</v>
       </c>
       <c r="BB7" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>45550</v>
+      </c>
+      <c r="BE7">
+        <v>11</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>344</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>348</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
       </c>
       <c r="BL7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM7" t="s">
-        <v>301</v>
-      </c>
-      <c r="CA7" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>45580</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>350</v>
       </c>
       <c r="CB7" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="CC7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="CD7" s="2">
-        <v>45849</v>
+        <v>45550</v>
       </c>
       <c r="CE7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="CF7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG7" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>45561</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:87">
@@ -2883,70 +2901,67 @@
         <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8">
-        <v>29502</v>
+        <v>201257</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2">
-        <v>42765.62567129629</v>
+        <v>45680.79515046296</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M8" s="3">
-        <v>30331</v>
+        <v>33691</v>
       </c>
       <c r="N8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X8" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y8" t="s">
         <v>279</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2961,79 +2976,67 @@
         <v>0</v>
       </c>
       <c r="AN8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO8" s="3">
         <v>45729</v>
       </c>
       <c r="AP8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ8" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>335</v>
       </c>
       <c r="AV8">
         <v>1</v>
       </c>
       <c r="AX8" s="3">
-        <v>45465</v>
+        <v>45839</v>
       </c>
       <c r="AY8" s="3">
-        <v>45179</v>
+        <v>45569</v>
       </c>
       <c r="AZ8" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="BA8" s="2">
-        <v>45415.80556712963</v>
+        <v>45680.86460648148</v>
       </c>
       <c r="BB8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM8" t="s">
-        <v>301</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>343</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>347</v>
-      </c>
-      <c r="BX8" s="3">
-        <v>44061</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>349</v>
+        <v>308</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>358</v>
       </c>
       <c r="CB8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="CD8" s="2">
-        <v>45460</v>
+        <v>45849</v>
       </c>
       <c r="CE8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG8" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH8" s="3">
-        <v>45729</v>
-      </c>
-      <c r="CI8" s="3">
-        <v>45945</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:87">
@@ -3053,70 +3056,70 @@
         <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>174052</v>
+        <v>29502</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I9" s="2">
-        <v>44966.78353009259</v>
+        <v>42765.62567129629</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M9" s="3">
-        <v>32940</v>
+        <v>30331</v>
       </c>
       <c r="N9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9" s="3">
-        <v>44945</v>
+        <v>45341</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -3131,64 +3134,79 @@
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO9" s="3">
         <v>45729</v>
       </c>
       <c r="AP9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AV9">
         <v>1</v>
       </c>
       <c r="AX9" s="3">
-        <v>45574</v>
+        <v>45465</v>
       </c>
       <c r="AY9" s="3">
-        <v>45351</v>
+        <v>45179</v>
       </c>
       <c r="AZ9" s="3">
-        <v>45379</v>
+        <v>45341</v>
       </c>
       <c r="BA9" s="2">
-        <v>45429.79835648148</v>
+        <v>45415.80556712963</v>
       </c>
       <c r="BB9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM9" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>154</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>355</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>44061</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>357</v>
       </c>
       <c r="CB9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="CD9" s="2">
-        <v>45632</v>
+        <v>45460</v>
       </c>
       <c r="CE9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH9" s="3">
         <v>45729</v>
       </c>
       <c r="CI9" s="3">
-        <v>45946</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="10" spans="1:87">
@@ -3196,7 +3214,7 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
@@ -3211,64 +3229,67 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>197556</v>
+        <v>174052</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2">
-        <v>45590.5246412037</v>
+        <v>44966.78353009259</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M10" s="3">
-        <v>30945</v>
+        <v>32940</v>
       </c>
       <c r="N10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P10" t="s">
         <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X10" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>287</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10" s="3">
-        <v>45589</v>
+        <v>44945</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -3283,64 +3304,64 @@
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO10" s="3">
-        <v>45757</v>
+        <v>45729</v>
       </c>
       <c r="AP10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ10" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AV10">
         <v>1</v>
       </c>
       <c r="AX10" s="3">
-        <v>45368</v>
+        <v>45574</v>
       </c>
       <c r="AY10" s="3">
-        <v>45101</v>
+        <v>45351</v>
       </c>
       <c r="AZ10" s="3">
-        <v>45589</v>
+        <v>45379</v>
       </c>
       <c r="BA10" s="2">
-        <v>45705.77799768518</v>
+        <v>45429.79835648148</v>
       </c>
       <c r="BB10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC10" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="CD10" s="2">
-        <v>45382</v>
+        <v>45632</v>
       </c>
       <c r="CE10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH10" s="3">
         <v>45729</v>
       </c>
       <c r="CI10" s="3">
-        <v>45847</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="11" spans="1:87">
@@ -3360,25 +3381,25 @@
         <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11">
         <v>199552</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I11" s="2">
         <v>45618.59185185185</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M11" s="3">
         <v>32566</v>
@@ -3387,37 +3408,37 @@
         <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -3438,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="AN11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO11" s="3">
         <v>45757</v>
       </c>
       <c r="AP11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -3465,31 +3486,31 @@
         <v>45618.59543981482</v>
       </c>
       <c r="BB11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="CD11" s="2">
         <v>45844</v>
       </c>
       <c r="CE11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH11" s="3">
         <v>45723</v>
@@ -3503,82 +3524,79 @@
         <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
         <v>134</v>
       </c>
       <c r="G12">
-        <v>204291</v>
+        <v>197556</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2">
-        <v>45743.79086805556</v>
+        <v>45590.5246412037</v>
       </c>
       <c r="J12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M12" s="3">
-        <v>38637</v>
+        <v>30945</v>
       </c>
       <c r="N12">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P12" t="s">
         <v>134</v>
       </c>
       <c r="Q12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="S12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="T12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W12" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12" s="3">
-        <v>45712</v>
+        <v>45589</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -3593,58 +3611,64 @@
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO12" s="3">
-        <v>45763</v>
+        <v>45757</v>
       </c>
       <c r="AP12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ12" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AV12">
         <v>1</v>
       </c>
       <c r="AX12" s="3">
-        <v>45830</v>
+        <v>45368</v>
       </c>
       <c r="AY12" s="3">
-        <v>45550</v>
+        <v>45101</v>
       </c>
       <c r="AZ12" s="3">
-        <v>45712</v>
+        <v>45589</v>
       </c>
       <c r="BA12" s="2">
-        <v>45743.79511574074</v>
+        <v>45705.77799768518</v>
       </c>
       <c r="BB12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL12" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC12" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="CD12" s="2">
-        <v>45830</v>
+        <v>45382</v>
       </c>
       <c r="CE12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF12" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG12" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CH12" s="3">
+        <v>45729</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>45847</v>
       </c>
     </row>
     <row r="13" spans="1:87">
@@ -3652,7 +3676,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
@@ -3667,70 +3691,67 @@
         <v>135</v>
       </c>
       <c r="G13">
-        <v>49927</v>
+        <v>204291</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I13" s="2">
-        <v>43816.66765046296</v>
+        <v>45743.79086805556</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M13" s="3">
-        <v>31890</v>
+        <v>38637</v>
       </c>
       <c r="N13">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P13" t="s">
         <v>135</v>
       </c>
       <c r="Q13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y13" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13" s="3">
-        <v>45742</v>
+        <v>45712</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3745,82 +3766,58 @@
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO13" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="AP13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AV13">
         <v>1</v>
       </c>
       <c r="AX13" s="3">
-        <v>45799</v>
+        <v>45830</v>
       </c>
       <c r="AY13" s="3">
-        <v>45519</v>
+        <v>45550</v>
       </c>
       <c r="AZ13" s="3">
-        <v>45742</v>
+        <v>45712</v>
       </c>
       <c r="BA13" s="2">
-        <v>45744.6271875</v>
+        <v>45743.79511574074</v>
       </c>
       <c r="BB13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM13" t="s">
-        <v>301</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>157</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>343</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>348</v>
-      </c>
-      <c r="BX13" s="3">
-        <v>43963</v>
-      </c>
-      <c r="BY13" s="3">
-        <v>43863</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CB13" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="CC13" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="CD13" s="2">
-        <v>45799</v>
+        <v>45830</v>
       </c>
       <c r="CE13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG13" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH13" s="3">
-        <v>45625</v>
-      </c>
-      <c r="CI13" s="3">
-        <v>45821</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:87">
@@ -3840,70 +3837,73 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14">
-        <v>31268</v>
+        <v>49927</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2">
-        <v>42858.53824074074</v>
+        <v>43816.66765046296</v>
       </c>
       <c r="J14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M14" s="3">
-        <v>32918</v>
+        <v>31890</v>
       </c>
       <c r="N14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y14" t="s">
-        <v>284</v>
+        <v>290</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>301</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14" s="3">
-        <v>45453</v>
+        <v>45742</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3915,121 +3915,85 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO14" s="3">
-        <v>45631</v>
+        <v>45854</v>
       </c>
       <c r="AP14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ14" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AV14">
         <v>1</v>
       </c>
       <c r="AX14" s="3">
-        <v>45679</v>
+        <v>45799</v>
       </c>
       <c r="AY14" s="3">
-        <v>45397</v>
+        <v>45519</v>
       </c>
       <c r="AZ14" s="3">
-        <v>45453</v>
+        <v>45742</v>
       </c>
       <c r="BA14" s="2">
-        <v>45499.54865740741</v>
+        <v>45744.6271875</v>
       </c>
       <c r="BB14" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BE14">
-        <v>10</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>334</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>336</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>337</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>266</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>339</v>
-      </c>
-      <c r="BK14">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="BL14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM14" t="s">
-        <v>301</v>
-      </c>
-      <c r="BN14" s="3">
-        <v>45644</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP14" s="3">
-        <v>45679</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="BT14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BU14" t="s">
-        <v>344</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>345</v>
+        <v>351</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>356</v>
       </c>
       <c r="BX14" s="3">
-        <v>44118</v>
+        <v>43963</v>
+      </c>
+      <c r="BY14" s="3">
+        <v>43863</v>
       </c>
       <c r="BZ14" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="CB14" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="CC14" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="CD14" s="2">
-        <v>45679</v>
+        <v>45799</v>
       </c>
       <c r="CE14" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CF14" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG14" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH14" s="3">
-        <v>45644</v>
+        <v>45625</v>
       </c>
       <c r="CI14" s="3">
-        <v>45749</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="15" spans="1:87">
@@ -4043,205 +4007,202 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
       </c>
       <c r="G15">
-        <v>28564</v>
+        <v>31268</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I15" s="2">
-        <v>42695.55586805556</v>
+        <v>42858.53824074074</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M15" s="3">
-        <v>32485</v>
+        <v>32918</v>
       </c>
       <c r="N15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P15" t="s">
         <v>136</v>
       </c>
       <c r="Q15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="U15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y15" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15" s="3">
-        <v>45533</v>
+        <v>45453</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AG15" t="s">
-        <v>266</v>
-      </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>44148</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>1</v>
       </c>
       <c r="AN15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO15" s="3">
-        <v>45764</v>
+        <v>45631</v>
       </c>
       <c r="AP15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AV15">
         <v>1</v>
       </c>
       <c r="AX15" s="3">
-        <v>45587</v>
+        <v>45679</v>
       </c>
       <c r="AY15" s="3">
-        <v>45306</v>
+        <v>45397</v>
       </c>
       <c r="AZ15" s="3">
-        <v>45533</v>
+        <v>45453</v>
       </c>
       <c r="BA15" s="2">
-        <v>45534.68231481482</v>
+        <v>45499.54865740741</v>
       </c>
       <c r="BB15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BC15" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="BD15" s="3">
-        <v>45557</v>
+        <v>45596</v>
       </c>
       <c r="BE15">
         <v>10</v>
       </c>
       <c r="BF15" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BG15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH15" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="BI15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BJ15" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BK15">
         <v>1</v>
       </c>
       <c r="BL15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BN15" s="3">
-        <v>45603</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>297</v>
+        <v>45644</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>349</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>45679</v>
       </c>
       <c r="BQ15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BT15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU15" t="s">
-        <v>343</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>353</v>
       </c>
       <c r="BX15" s="3">
-        <v>44146</v>
+        <v>44118</v>
       </c>
       <c r="BZ15" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CB15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="CC15" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="CD15" s="2">
-        <v>45587</v>
+        <v>45679</v>
       </c>
       <c r="CE15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="CF15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH15" s="3">
-        <v>45667</v>
+        <v>45644</v>
       </c>
       <c r="CI15" s="3">
-        <v>45818</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="16" spans="1:87">
@@ -4249,154 +4210,211 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
       </c>
       <c r="G16">
-        <v>125137</v>
+        <v>28564</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I16" s="2">
-        <v>44468.77130787037</v>
+        <v>42695.55586805556</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M16" s="3">
-        <v>33302</v>
+        <v>32485</v>
       </c>
       <c r="N16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P16" t="s">
         <v>137</v>
       </c>
       <c r="Q16" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="S16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="T16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
+      <c r="AG16" t="s">
+        <v>272</v>
+      </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>44148</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO16" s="3">
-        <v>45727</v>
+        <v>45764</v>
       </c>
       <c r="AP16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AV16">
         <v>1</v>
       </c>
       <c r="AX16" s="3">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="AY16" s="3">
-        <v>45406</v>
+        <v>45306</v>
       </c>
       <c r="AZ16" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="BA16" s="2">
-        <v>45692.64329861111</v>
+        <v>45534.68231481482</v>
       </c>
       <c r="BB16" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>45557</v>
+      </c>
+      <c r="BE16">
+        <v>10</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>344</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
       </c>
       <c r="BL16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM16" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>45603</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>304</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>350</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>354</v>
+      </c>
+      <c r="BX16" s="3">
+        <v>44146</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>357</v>
       </c>
       <c r="CB16" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="CC16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="CD16" s="2">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="CE16" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="CF16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH16" s="3">
-        <v>45348</v>
+        <v>45667</v>
       </c>
       <c r="CI16" s="3">
-        <v>45863</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="17" spans="1:87">
@@ -4416,25 +4434,25 @@
         <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17">
         <v>36798</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I17" s="2">
         <v>43137.83925925926</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M17" s="3">
         <v>32874</v>
@@ -4443,40 +4461,40 @@
         <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y17" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Z17" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -4488,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -4500,16 +4518,16 @@
         <v>0</v>
       </c>
       <c r="AN17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO17" s="3">
         <v>45622</v>
       </c>
       <c r="AP17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ17" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -4527,57 +4545,57 @@
         <v>45483.59184027778</v>
       </c>
       <c r="BB17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BT17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BU17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BW17" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BX17" s="3">
         <v>44152</v>
       </c>
       <c r="BZ17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CB17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC17" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="CD17" s="2">
         <v>45495</v>
       </c>
       <c r="CE17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH17" s="3">
         <v>45134</v>
       </c>
       <c r="CI17" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:87">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
@@ -4586,76 +4604,76 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>138</v>
       </c>
       <c r="G18">
-        <v>201086</v>
+        <v>125137</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I18" s="2">
-        <v>45646.6363425926</v>
+        <v>44468.77130787037</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M18" s="3">
-        <v>34740</v>
+        <v>33302</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P18" t="s">
         <v>138</v>
       </c>
       <c r="Q18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X18" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y18" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18" s="3">
-        <v>45646</v>
+        <v>45528</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -4670,67 +4688,64 @@
         <v>0</v>
       </c>
       <c r="AN18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO18" s="3">
-        <v>45757</v>
+        <v>45727</v>
       </c>
       <c r="AP18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ18" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AV18">
         <v>1</v>
       </c>
       <c r="AX18" s="3">
-        <v>45847</v>
+        <v>45688</v>
       </c>
       <c r="AY18" s="3">
-        <v>45567</v>
+        <v>45406</v>
       </c>
       <c r="AZ18" s="3">
-        <v>45637</v>
+        <v>45528</v>
       </c>
       <c r="BA18" s="2">
-        <v>45646.63934027778</v>
+        <v>45692.64329861111</v>
       </c>
       <c r="BB18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL18" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM18" t="s">
-        <v>301</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="CB18" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC18" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="CD18" s="2">
-        <v>45847</v>
+        <v>45688</v>
       </c>
       <c r="CE18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF18" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG18" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="CH18" s="3">
+        <v>45348</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>45863</v>
       </c>
     </row>
     <row r="19" spans="1:87">
@@ -4750,58 +4765,58 @@
         <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19">
         <v>106990</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I19" s="2">
         <v>44262.65186342593</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M19" s="3">
         <v>36357</v>
       </c>
       <c r="N19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -4822,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="AN19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO19" s="3">
         <v>45799</v>
       </c>
       <c r="AP19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AX19" s="3">
         <v>45849</v>
@@ -4846,31 +4861,31 @@
         <v>45792.62974537037</v>
       </c>
       <c r="BB19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC19" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="CD19" s="2">
         <v>45851</v>
       </c>
       <c r="CE19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG19" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:87">
@@ -4878,139 +4893,157 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
         <v>139</v>
       </c>
       <c r="G20">
-        <v>105496</v>
+        <v>201086</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I20" s="2">
-        <v>44187.98162037037</v>
+        <v>45646.6363425926</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M20" s="3">
-        <v>34700</v>
+        <v>34740</v>
       </c>
       <c r="N20">
         <v>30</v>
       </c>
+      <c r="O20" t="s">
+        <v>270</v>
+      </c>
       <c r="P20" t="s">
         <v>139</v>
       </c>
       <c r="Q20" t="s">
+        <v>278</v>
+      </c>
+      <c r="R20" t="s">
+        <v>279</v>
+      </c>
+      <c r="S20" t="s">
+        <v>279</v>
+      </c>
+      <c r="T20" t="s">
+        <v>279</v>
+      </c>
+      <c r="U20" t="s">
+        <v>279</v>
+      </c>
+      <c r="V20" t="s">
+        <v>279</v>
+      </c>
+      <c r="W20" t="s">
+        <v>279</v>
+      </c>
+      <c r="X20" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>45646</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>45757</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>45847</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>45567</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>45637</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>45646.63934027778</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>358</v>
+      </c>
+      <c r="CB20" t="s">
         <v>272</v>
       </c>
-      <c r="R20" t="s">
-        <v>273</v>
-      </c>
-      <c r="S20" t="s">
-        <v>273</v>
-      </c>
-      <c r="T20" t="s">
-        <v>273</v>
-      </c>
-      <c r="U20" t="s">
-        <v>273</v>
-      </c>
-      <c r="V20" t="s">
-        <v>273</v>
-      </c>
-      <c r="W20" t="s">
-        <v>273</v>
-      </c>
-      <c r="X20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>45730</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>318</v>
-      </c>
-      <c r="AX20" s="3">
-        <v>45827</v>
-      </c>
-      <c r="AY20" s="3">
-        <v>45561</v>
-      </c>
-      <c r="AZ20" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BA20" s="2">
-        <v>45770.62298611111</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>266</v>
-      </c>
       <c r="CC20" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="CD20" s="2">
-        <v>45841</v>
+        <v>45847</v>
       </c>
       <c r="CE20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG20" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH20" s="3">
-        <v>44692</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:87">
@@ -5030,25 +5063,25 @@
         <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G21">
         <v>24009</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I21" s="2">
         <v>42411.69771990741</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M21" s="3">
         <v>36255</v>
@@ -5057,37 +5090,37 @@
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -5102,16 +5135,16 @@
         <v>0</v>
       </c>
       <c r="AN21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO21" s="3">
         <v>45730</v>
       </c>
       <c r="AP21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AX21" s="3">
         <v>45767</v>
@@ -5126,31 +5159,31 @@
         <v>45770.62432870371</v>
       </c>
       <c r="BB21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BM21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC21" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="CD21" s="2">
         <v>45767</v>
       </c>
       <c r="CE21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG21" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:87">
@@ -5170,124 +5203,127 @@
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G22">
-        <v>186134</v>
+        <v>105496</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I22" s="2">
-        <v>45300.80584490741</v>
+        <v>44187.98162037037</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" s="3">
-        <v>33764</v>
+        <v>34700</v>
       </c>
       <c r="N22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
+        <v>278</v>
+      </c>
+      <c r="R22" t="s">
+        <v>279</v>
+      </c>
+      <c r="S22" t="s">
+        <v>279</v>
+      </c>
+      <c r="T22" t="s">
+        <v>279</v>
+      </c>
+      <c r="U22" t="s">
+        <v>279</v>
+      </c>
+      <c r="V22" t="s">
+        <v>279</v>
+      </c>
+      <c r="W22" t="s">
+        <v>279</v>
+      </c>
+      <c r="X22" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>45827</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>45561</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>45596</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>45770.62298611111</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB22" t="s">
         <v>272</v>
       </c>
-      <c r="R22" t="s">
-        <v>273</v>
-      </c>
-      <c r="S22" t="s">
-        <v>273</v>
-      </c>
-      <c r="T22" t="s">
-        <v>273</v>
-      </c>
-      <c r="U22" t="s">
-        <v>273</v>
-      </c>
-      <c r="V22" t="s">
-        <v>273</v>
-      </c>
-      <c r="W22" t="s">
-        <v>273</v>
-      </c>
-      <c r="X22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>45730</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>318</v>
-      </c>
-      <c r="AX22" s="3">
-        <v>45814</v>
-      </c>
-      <c r="AY22" s="3">
-        <v>45533</v>
-      </c>
-      <c r="AZ22" s="3">
-        <v>44757</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>45770.56368055556</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB22" t="s">
-        <v>266</v>
-      </c>
       <c r="CC22" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="CD22" s="2">
-        <v>45813</v>
+        <v>45841</v>
       </c>
       <c r="CE22" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF22" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG22" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CH22" s="3">
+        <v>44692</v>
       </c>
     </row>
     <row r="23" spans="1:87">
@@ -5307,25 +5343,25 @@
         <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G23">
         <v>186339</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I23" s="2">
         <v>45309.74211805555</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M23" s="3">
         <v>33095</v>
@@ -5334,40 +5370,40 @@
         <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -5382,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO23" s="3">
-        <v>45730</v>
+        <v>45819</v>
       </c>
       <c r="AP23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ23" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AX23" s="3">
         <v>45804</v>
@@ -5406,31 +5442,31 @@
         <v>45770.56618055556</v>
       </c>
       <c r="BB23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB23" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC23" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CD23" s="2">
         <v>45804</v>
       </c>
       <c r="CE23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG23" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:87">
@@ -5438,163 +5474,136 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
       </c>
       <c r="G24">
-        <v>31860</v>
+        <v>186134</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I24" s="2">
-        <v>42879.80571759259</v>
+        <v>45300.80584490741</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M24" s="3">
-        <v>30932</v>
+        <v>33764</v>
       </c>
       <c r="N24">
-        <v>40</v>
-      </c>
-      <c r="O24" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="P24" t="s">
         <v>140</v>
       </c>
       <c r="Q24" t="s">
+        <v>278</v>
+      </c>
+      <c r="R24" t="s">
+        <v>279</v>
+      </c>
+      <c r="S24" t="s">
+        <v>279</v>
+      </c>
+      <c r="T24" t="s">
+        <v>279</v>
+      </c>
+      <c r="U24" t="s">
+        <v>279</v>
+      </c>
+      <c r="V24" t="s">
+        <v>279</v>
+      </c>
+      <c r="W24" t="s">
+        <v>279</v>
+      </c>
+      <c r="X24" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>45819</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>45814</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>45533</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>44757</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>45770.56368055556</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB24" t="s">
         <v>272</v>
       </c>
-      <c r="R24" t="s">
-        <v>273</v>
-      </c>
-      <c r="S24" t="s">
-        <v>273</v>
-      </c>
-      <c r="T24" t="s">
-        <v>273</v>
-      </c>
-      <c r="U24" t="s">
-        <v>273</v>
-      </c>
-      <c r="V24" t="s">
-        <v>273</v>
-      </c>
-      <c r="W24" t="s">
-        <v>274</v>
-      </c>
-      <c r="X24" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>301</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>45771</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>319</v>
-      </c>
-      <c r="AX24" s="3">
-        <v>45849</v>
-      </c>
-      <c r="AY24" s="3">
-        <v>45569</v>
-      </c>
-      <c r="AZ24" s="3">
-        <v>45617</v>
-      </c>
-      <c r="BA24" s="2">
-        <v>45632.06791666667</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>301</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>343</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>346</v>
-      </c>
-      <c r="BX24" s="3">
-        <v>44147</v>
-      </c>
-      <c r="BZ24" t="s">
-        <v>349</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>266</v>
-      </c>
       <c r="CC24" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="CD24" s="2">
-        <v>45849</v>
+        <v>45813</v>
       </c>
       <c r="CE24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG24" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH24" s="3">
-        <v>45782</v>
-      </c>
-      <c r="CI24" s="3">
-        <v>45840</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:87">
@@ -5614,74 +5623,71 @@
         <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25">
-        <v>194855</v>
+        <v>31860</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I25" s="2">
-        <v>45530.64438657407</v>
+        <v>42879.80571759259</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M25" s="3">
-        <v>33210</v>
+        <v>30932</v>
       </c>
       <c r="N25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25" t="s">
+        <v>278</v>
+      </c>
+      <c r="R25" t="s">
+        <v>279</v>
+      </c>
+      <c r="S25" t="s">
+        <v>279</v>
+      </c>
+      <c r="T25" t="s">
+        <v>279</v>
+      </c>
+      <c r="U25" t="s">
+        <v>279</v>
+      </c>
+      <c r="V25" t="s">
+        <v>279</v>
+      </c>
+      <c r="W25" t="s">
+        <v>280</v>
+      </c>
+      <c r="X25" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="s">
         <v>272</v>
       </c>
-      <c r="R25" t="s">
-        <v>273</v>
-      </c>
-      <c r="S25" t="s">
-        <v>273</v>
-      </c>
-      <c r="T25" t="s">
-        <v>273</v>
-      </c>
-      <c r="U25" t="s">
-        <v>273</v>
-      </c>
-      <c r="V25" t="s">
-        <v>273</v>
-      </c>
-      <c r="W25" t="s">
-        <v>273</v>
-      </c>
-      <c r="X25" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>45463</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -5692,61 +5698,76 @@
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AO25" s="3">
-        <v>45754</v>
+        <v>45771</v>
       </c>
       <c r="AP25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ25" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AX25" s="3">
-        <v>45627</v>
+        <v>45849</v>
       </c>
       <c r="AY25" s="3">
-        <v>45347</v>
+        <v>45569</v>
       </c>
       <c r="AZ25" s="3">
-        <v>45456</v>
+        <v>45617</v>
       </c>
       <c r="BA25" s="2">
-        <v>45530.66886574074</v>
+        <v>45632.06791666667</v>
       </c>
       <c r="BB25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL25" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM25" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>354</v>
+      </c>
+      <c r="BX25" s="3">
+        <v>44147</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>357</v>
       </c>
       <c r="CB25" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC25" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="CD25" s="2">
-        <v>45628</v>
+        <v>45849</v>
       </c>
       <c r="CE25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH25" s="3">
-        <v>45530</v>
+        <v>45782</v>
       </c>
       <c r="CI25" s="3">
-        <v>45573</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="26" spans="1:87">
@@ -5769,67 +5790,67 @@
         <v>141</v>
       </c>
       <c r="G26">
-        <v>192006</v>
+        <v>194855</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I26" s="2">
-        <v>45425.68738425926</v>
+        <v>45530.64438657407</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M26" s="3">
-        <v>30664</v>
+        <v>33210</v>
       </c>
       <c r="N26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P26" t="s">
         <v>141</v>
       </c>
       <c r="Q26" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="R26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="S26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="T26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
       <c r="AB26" s="3">
-        <v>45392</v>
+        <v>45463</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -5844,64 +5865,61 @@
         <v>0</v>
       </c>
       <c r="AN26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AO26" s="3">
-        <v>45707</v>
+        <v>45754</v>
       </c>
       <c r="AP26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AQ26" t="s">
-        <v>321</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="AX26" s="3">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="AY26" s="3">
         <v>45347</v>
       </c>
       <c r="AZ26" s="3">
-        <v>45392</v>
+        <v>45456</v>
       </c>
       <c r="BA26" s="2">
-        <v>45425.68949074074</v>
+        <v>45530.66886574074</v>
       </c>
       <c r="BB26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="BL26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="BM26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CB26" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="CC26" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="CD26" s="2">
         <v>45628</v>
       </c>
       <c r="CE26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG26" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH26" s="3">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="CI26" s="3">
-        <v>45552</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="27" spans="1:87">
@@ -5909,136 +5927,154 @@
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>
       </c>
       <c r="G27">
-        <v>183731</v>
+        <v>192006</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I27" s="2">
-        <v>45204.62074074074</v>
+        <v>45425.68738425926</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M27" s="3">
-        <v>34135</v>
+        <v>30664</v>
       </c>
       <c r="N27">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>274</v>
       </c>
       <c r="P27" t="s">
         <v>142</v>
       </c>
       <c r="Q27" t="s">
+        <v>278</v>
+      </c>
+      <c r="R27" t="s">
+        <v>279</v>
+      </c>
+      <c r="S27" t="s">
+        <v>279</v>
+      </c>
+      <c r="T27" t="s">
+        <v>279</v>
+      </c>
+      <c r="U27" t="s">
+        <v>279</v>
+      </c>
+      <c r="V27" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27" t="s">
+        <v>279</v>
+      </c>
+      <c r="X27" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>45392</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>45707</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="3">
+        <v>45628</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>45347</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>45392</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>45425.68949074074</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB27" t="s">
         <v>272</v>
       </c>
-      <c r="R27" t="s">
-        <v>273</v>
-      </c>
-      <c r="S27" t="s">
-        <v>273</v>
-      </c>
-      <c r="T27" t="s">
-        <v>273</v>
-      </c>
-      <c r="U27" t="s">
-        <v>273</v>
-      </c>
-      <c r="V27" t="s">
-        <v>273</v>
-      </c>
-      <c r="W27" t="s">
-        <v>273</v>
-      </c>
-      <c r="X27" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>45709</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>322</v>
-      </c>
-      <c r="AX27" s="3">
-        <v>45395</v>
-      </c>
-      <c r="AY27" s="3">
-        <v>45127</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>297</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>45204.62678240741</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB27" t="s">
-        <v>266</v>
-      </c>
       <c r="CC27" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="CD27" s="2">
-        <v>45409</v>
+        <v>45628</v>
       </c>
       <c r="CE27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG27" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="CH27" s="3">
+        <v>45523</v>
+      </c>
+      <c r="CI27" s="3">
+        <v>45552</v>
       </c>
     </row>
     <row r="28" spans="1:87">
@@ -6046,7 +6082,7 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>98</v>
@@ -6061,136 +6097,121 @@
         <v>143</v>
       </c>
       <c r="G28">
-        <v>177881</v>
+        <v>183731</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I28" s="2">
-        <v>45034.66113425926</v>
+        <v>45204.62074074074</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
         <v>247</v>
       </c>
       <c r="M28" s="3">
-        <v>32137</v>
+        <v>34135</v>
       </c>
       <c r="N28">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s">
         <v>143</v>
       </c>
       <c r="Q28" t="s">
+        <v>278</v>
+      </c>
+      <c r="R28" t="s">
+        <v>279</v>
+      </c>
+      <c r="S28" t="s">
+        <v>279</v>
+      </c>
+      <c r="T28" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" t="s">
+        <v>279</v>
+      </c>
+      <c r="V28" t="s">
+        <v>279</v>
+      </c>
+      <c r="W28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>45395</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>45127</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>45204.62678240741</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB28" t="s">
         <v>272</v>
       </c>
-      <c r="R28" t="s">
-        <v>273</v>
-      </c>
-      <c r="S28" t="s">
-        <v>273</v>
-      </c>
-      <c r="T28" t="s">
-        <v>273</v>
-      </c>
-      <c r="U28" t="s">
-        <v>273</v>
-      </c>
-      <c r="V28" t="s">
-        <v>273</v>
-      </c>
-      <c r="W28" t="s">
-        <v>273</v>
-      </c>
-      <c r="X28" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>45772</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>323</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AX28" s="3">
-        <v>45753</v>
-      </c>
-      <c r="AY28" s="3">
-        <v>45473</v>
-      </c>
-      <c r="AZ28" s="3">
-        <v>45519</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>45548.69295138889</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB28" t="s">
-        <v>266</v>
-      </c>
       <c r="CC28" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="CD28" s="2">
-        <v>45753</v>
+        <v>45409</v>
       </c>
       <c r="CE28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG28" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH28" s="3">
-        <v>45685</v>
-      </c>
-      <c r="CI28" s="3">
-        <v>45768</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:87">
@@ -6198,151 +6219,151 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
         <v>144</v>
       </c>
       <c r="G29">
-        <v>160476</v>
+        <v>177881</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I29" s="2">
-        <v>44708.61177083333</v>
+        <v>45034.66113425926</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M29" s="3">
-        <v>33675</v>
+        <v>32137</v>
       </c>
       <c r="N29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P29" t="s">
         <v>144</v>
       </c>
       <c r="Q29" t="s">
+        <v>278</v>
+      </c>
+      <c r="R29" t="s">
+        <v>279</v>
+      </c>
+      <c r="S29" t="s">
+        <v>279</v>
+      </c>
+      <c r="T29" t="s">
+        <v>279</v>
+      </c>
+      <c r="U29" t="s">
+        <v>279</v>
+      </c>
+      <c r="V29" t="s">
+        <v>279</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>45772</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="3">
+        <v>45753</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>45519</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>45548.69295138889</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB29" t="s">
         <v>272</v>
       </c>
-      <c r="R29" t="s">
-        <v>273</v>
-      </c>
-      <c r="S29" t="s">
-        <v>273</v>
-      </c>
-      <c r="T29" t="s">
-        <v>273</v>
-      </c>
-      <c r="U29" t="s">
-        <v>273</v>
-      </c>
-      <c r="V29" t="s">
-        <v>273</v>
-      </c>
-      <c r="W29" t="s">
-        <v>273</v>
-      </c>
-      <c r="X29" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>44662</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>45742</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>324</v>
-      </c>
-      <c r="AX29" s="3">
-        <v>45625</v>
-      </c>
-      <c r="AY29" s="3">
-        <v>45344</v>
-      </c>
-      <c r="AZ29" s="3">
-        <v>45461</v>
-      </c>
-      <c r="BA29" s="2">
-        <v>45536.06923611111</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB29" t="s">
-        <v>266</v>
-      </c>
       <c r="CC29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="CD29" s="2">
-        <v>45625</v>
+        <v>45753</v>
       </c>
       <c r="CE29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CF29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CG29" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="CH29" s="3">
-        <v>45554</v>
+        <v>45685</v>
       </c>
       <c r="CI29" s="3">
-        <v>45554</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="30" spans="1:87">
@@ -6350,7 +6371,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>98</v>
@@ -6365,132 +6386,284 @@
         <v>145</v>
       </c>
       <c r="G30">
-        <v>175111</v>
+        <v>160476</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I30" s="2">
-        <v>44984.69831018519</v>
+        <v>44708.61177083333</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M30" s="3">
-        <v>30719</v>
+        <v>33675</v>
       </c>
       <c r="N30">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P30" t="s">
         <v>145</v>
       </c>
       <c r="Q30" t="s">
+        <v>278</v>
+      </c>
+      <c r="R30" t="s">
+        <v>279</v>
+      </c>
+      <c r="S30" t="s">
+        <v>279</v>
+      </c>
+      <c r="T30" t="s">
+        <v>279</v>
+      </c>
+      <c r="U30" t="s">
+        <v>279</v>
+      </c>
+      <c r="V30" t="s">
+        <v>279</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>44662</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>45742</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>45625</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>45344</v>
+      </c>
+      <c r="AZ30" s="3">
+        <v>45461</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>45536.06923611111</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB30" t="s">
         <v>272</v>
       </c>
-      <c r="R30" t="s">
-        <v>273</v>
-      </c>
-      <c r="S30" t="s">
-        <v>273</v>
-      </c>
-      <c r="T30" t="s">
-        <v>273</v>
-      </c>
-      <c r="U30" t="s">
-        <v>273</v>
-      </c>
-      <c r="V30" t="s">
-        <v>273</v>
-      </c>
-      <c r="W30" t="s">
-        <v>273</v>
-      </c>
-      <c r="X30" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO30" s="3">
+      <c r="CC30" t="s">
+        <v>390</v>
+      </c>
+      <c r="CD30" s="2">
+        <v>45625</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH30" s="3">
+        <v>45554</v>
+      </c>
+      <c r="CI30" s="3">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:87">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31">
+        <v>175111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="2">
+        <v>44984.69831018519</v>
+      </c>
+      <c r="J31" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" s="3">
+        <v>30719</v>
+      </c>
+      <c r="N31">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>277</v>
+      </c>
+      <c r="P31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R31" t="s">
+        <v>279</v>
+      </c>
+      <c r="S31" t="s">
+        <v>279</v>
+      </c>
+      <c r="T31" t="s">
+        <v>279</v>
+      </c>
+      <c r="U31" t="s">
+        <v>279</v>
+      </c>
+      <c r="V31" t="s">
+        <v>279</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO31" s="3">
         <v>45771</v>
       </c>
-      <c r="AP30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>325</v>
-      </c>
-      <c r="AX30" s="3">
+      <c r="AP31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX31" s="3">
         <v>45850</v>
       </c>
-      <c r="AY30" s="3">
+      <c r="AY31" s="3">
         <v>45570</v>
       </c>
-      <c r="AZ30" t="s">
-        <v>297</v>
-      </c>
-      <c r="BA30" s="2">
+      <c r="AZ31" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA31" s="2">
         <v>45761.69460648148</v>
       </c>
-      <c r="BB30" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB30" t="s">
-        <v>266</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>382</v>
-      </c>
-      <c r="CD30" s="2">
+      <c r="BB31" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>391</v>
+      </c>
+      <c r="CD31" s="2">
         <v>45850</v>
       </c>
-      <c r="CE30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CF30" t="s">
-        <v>301</v>
-      </c>
-      <c r="CG30" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH30" s="3">
+      <c r="CE31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH31" s="3">
         <v>45701</v>
       </c>
-      <c r="CI30" s="3">
+      <c r="CI31" s="3">
         <v>45790</v>
       </c>
     </row>

--- a/filtered_df2.xlsx
+++ b/filtered_df2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="417">
   <si>
     <t>office</t>
   </si>
@@ -346,12 +346,18 @@
     <t>Anse A Galet</t>
   </si>
   <si>
+    <t>Croix-Des-Bouquets</t>
+  </si>
+  <si>
     <t>Delmas</t>
   </si>
   <si>
     <t>Petion-Ville</t>
   </si>
   <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
     <t>Tabarre</t>
   </si>
   <si>
@@ -388,12 +394,18 @@
     <t>1ère Palma</t>
   </si>
   <si>
+    <t>1ère Varreux</t>
+  </si>
+  <si>
     <t>1ère Saint martin</t>
   </si>
   <si>
     <t>7ème Bellevue Chardonnière</t>
   </si>
   <si>
+    <t>6ème Turgeau</t>
+  </si>
+  <si>
     <t>4ème Bellevue</t>
   </si>
   <si>
@@ -439,6 +451,9 @@
     <t>Hôpital Wesleyen de la Gonave</t>
   </si>
   <si>
+    <t>Hopital Foyer Saint-Camille</t>
+  </si>
+  <si>
     <t>Centre de Santé de Petite Place Cazeau</t>
   </si>
   <si>
@@ -451,12 +466,12 @@
     <t>Hôpital de la Communauté Haïtienne</t>
   </si>
   <si>
+    <t>St. Francoise de Sales</t>
+  </si>
+  <si>
     <t>Hôpital Saint Damien NOS PETITS FRERES ET SOEURS (NPFS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Institut de Dermatologie et des Maladies Infectieuses </t>
-  </si>
-  <si>
     <t>CAP/CDSF/ST00592</t>
   </si>
   <si>
@@ -472,6 +487,9 @@
     <t>CAP/SECH/ST00833</t>
   </si>
   <si>
+    <t>MCH/HCHM/ST02047</t>
+  </si>
+  <si>
     <t>MCH/HCHM/ST02447</t>
   </si>
   <si>
@@ -484,10 +502,13 @@
     <t>ENN/HTLO/ST00679</t>
   </si>
   <si>
+    <t>GON/CSFA/ST01097</t>
+  </si>
+  <si>
     <t>GON/CSFA/ST01470</t>
   </si>
   <si>
-    <t>GON/CSFA/ST01097</t>
+    <t>GON/CSFA/ST01200</t>
   </si>
   <si>
     <t>GON/CDIR/ST02441</t>
@@ -502,16 +523,25 @@
     <t>GRO/HAMG/ST00649</t>
   </si>
   <si>
+    <t>SMA/CSSM/ST01254</t>
+  </si>
+  <si>
     <t>SMA/CSSM/ST00620</t>
   </si>
   <si>
     <t>SMA/CSSM/ST00986</t>
   </si>
   <si>
+    <t>STM/CSPP/ST02486</t>
+  </si>
+  <si>
     <t>STM/CSPP/ST02015</t>
   </si>
   <si>
-    <t>STM/CSPP/ST02486</t>
+    <t>LAG/HWLG/ST01571</t>
+  </si>
+  <si>
+    <t>LAG/HWLG/ST01655</t>
   </si>
   <si>
     <t>LAG/HWLG/ST00813</t>
@@ -520,10 +550,7 @@
     <t>LAG/HWLG/ST01322</t>
   </si>
   <si>
-    <t>LAG/HWLG/ST01655</t>
-  </si>
-  <si>
-    <t>LAG/HWLG/ST01571</t>
+    <t>PAP/HFSC/ST04820</t>
   </si>
   <si>
     <t>PAP/CMSP/ST00614</t>
@@ -541,12 +568,12 @@
     <t>PAP/HOCH/ST00038</t>
   </si>
   <si>
+    <t>PAP/HSFS/ST01028</t>
+  </si>
+  <si>
     <t>PAP/NPFS/ST04120</t>
   </si>
   <si>
-    <t>PAP/OMFP/ST05211</t>
-  </si>
-  <si>
     <t>CAP/CDSF</t>
   </si>
   <si>
@@ -589,6 +616,9 @@
     <t>LAG/HWLG</t>
   </si>
   <si>
+    <t>PAP/HFSC</t>
+  </si>
+  <si>
     <t>PAP/CMSP</t>
   </si>
   <si>
@@ -601,12 +631,12 @@
     <t>PAP/HOCH</t>
   </si>
   <si>
+    <t>PAP/HSFS</t>
+  </si>
+  <si>
     <t>PAP/NPFS</t>
   </si>
   <si>
-    <t>PAP/OMFP</t>
-  </si>
-  <si>
     <t>Iliona</t>
   </si>
   <si>
@@ -622,6 +652,9 @@
     <t>Didier</t>
   </si>
   <si>
+    <t>Alcinette</t>
+  </si>
+  <si>
     <t>Francia</t>
   </si>
   <si>
@@ -634,10 +667,13 @@
     <t>Altanania</t>
   </si>
   <si>
+    <t>Dieugrace</t>
+  </si>
+  <si>
     <t>Mercilia</t>
   </si>
   <si>
-    <t>Dieugrace</t>
+    <t>Isemane</t>
   </si>
   <si>
     <t>Angelène</t>
@@ -652,16 +688,25 @@
     <t>EXILIA</t>
   </si>
   <si>
+    <t>Antonia</t>
+  </si>
+  <si>
     <t>Solange</t>
   </si>
   <si>
     <t>Rosemartha</t>
   </si>
   <si>
+    <t>Pierre</t>
+  </si>
+  <si>
     <t>Eveline</t>
   </si>
   <si>
-    <t>Pierre</t>
+    <t xml:space="preserve">Judette </t>
+  </si>
+  <si>
+    <t>Joinica</t>
   </si>
   <si>
     <t>Melissa</t>
@@ -670,10 +715,7 @@
     <t xml:space="preserve">Evanesque </t>
   </si>
   <si>
-    <t>Joinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judette </t>
+    <t>Roselene</t>
   </si>
   <si>
     <t>Rosita</t>
@@ -691,12 +733,12 @@
     <t>Nadège</t>
   </si>
   <si>
+    <t>Carole</t>
+  </si>
+  <si>
     <t>Duclos</t>
   </si>
   <si>
-    <t>Darline</t>
-  </si>
-  <si>
     <t>Francois</t>
   </si>
   <si>
@@ -712,6 +754,9 @@
     <t>Myrlande</t>
   </si>
   <si>
+    <t>Casimir</t>
+  </si>
+  <si>
     <t>Mauristin</t>
   </si>
   <si>
@@ -721,10 +766,13 @@
     <t>Sime</t>
   </si>
   <si>
+    <t>Cetoute</t>
+  </si>
+  <si>
     <t>Ferdinand</t>
   </si>
   <si>
-    <t>Cetoute</t>
+    <t>Acelus</t>
   </si>
   <si>
     <t>Azema</t>
@@ -739,16 +787,25 @@
     <t>RICHE</t>
   </si>
   <si>
+    <t>Charles</t>
+  </si>
+  <si>
     <t>Elie</t>
   </si>
   <si>
     <t>Merveus</t>
   </si>
   <si>
+    <t>Sheilla</t>
+  </si>
+  <si>
     <t>PIERRE</t>
   </si>
   <si>
-    <t>Sheilla</t>
+    <t>LAURENT</t>
+  </si>
+  <si>
+    <t>JEAN</t>
   </si>
   <si>
     <t>Belfort</t>
@@ -757,10 +814,7 @@
     <t>Nicolas</t>
   </si>
   <si>
-    <t>JEAN</t>
-  </si>
-  <si>
-    <t>LAURENT</t>
+    <t>Cenat</t>
   </si>
   <si>
     <t>Merisier</t>
@@ -794,6 +848,10 @@
     <t>Camp-Coq nan marguerite, bo pye mapou a</t>
   </si>
   <si>
+    <t>4e Section_x000D_
+Poste Pierrot   Perodin</t>
+  </si>
+  <si>
     <t>Innocent bo kay EKA</t>
   </si>
   <si>
@@ -803,10 +861,10 @@
     <t>Dubedou</t>
   </si>
   <si>
+    <t>Boukan Toman Bayonnais</t>
+  </si>
+  <si>
     <t>Bayonnais</t>
-  </si>
-  <si>
-    <t>Boukan Toman Bayonnais</t>
   </si>
   <si>
     <t>Bas Jubilé</t>
@@ -822,6 +880,9 @@
     <t>K-MADAM,RAVINE GROS MORNE FACE L EAU TRAITEE</t>
   </si>
   <si>
+    <t>Camathe</t>
+  </si>
+  <si>
     <t>Licanta pi haut eglise pasteur Dieuseul_x000D_
 Platana</t>
   </si>
@@ -835,6 +896,9 @@
     <t>nan mapou</t>
   </si>
   <si>
+    <t>Lilavois 49</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -850,9 +914,6 @@
     <t>Jaquet Toto</t>
   </si>
   <si>
-    <t>Nazon, Caravelle prolonge  ruelle sylvia #7</t>
-  </si>
-  <si>
     <t>autres</t>
   </si>
   <si>
@@ -874,6 +935,9 @@
     <t>48697228</t>
   </si>
   <si>
+    <t>50935479898</t>
+  </si>
+  <si>
     <t>33924464</t>
   </si>
   <si>
@@ -907,6 +971,9 @@
     <t>31559104</t>
   </si>
   <si>
+    <t>42545342</t>
+  </si>
+  <si>
     <t>48650932</t>
   </si>
   <si>
@@ -916,9 +983,6 @@
     <t>47377458</t>
   </si>
   <si>
-    <t>44176808</t>
-  </si>
-  <si>
     <t>50931516873</t>
   </si>
   <si>
@@ -961,6 +1025,9 @@
     <t>lauriers</t>
   </si>
   <si>
+    <t>Excelsior IV</t>
+  </si>
+  <si>
     <t>Claire Heureuse</t>
   </si>
   <si>
@@ -985,21 +1052,27 @@
     <t>ETOILES DE GROS-MORNE</t>
   </si>
   <si>
+    <t>Ambassadrice 4</t>
+  </si>
+  <si>
     <t>Fanm Vanyan de SMA</t>
   </si>
   <si>
     <t>Ambassadrice 3</t>
   </si>
   <si>
+    <t>Femmes courageuses de Pierre Payen</t>
+  </si>
+  <si>
     <t>Tet ansanb</t>
   </si>
   <si>
-    <t>Femmes courageuses de Pierre Payen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Femmes solides </t>
   </si>
   <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
     <t>Cassiopee</t>
   </si>
   <si>
@@ -1015,12 +1088,12 @@
     <t>les pionnieres de la victoire</t>
   </si>
   <si>
+    <t>Alliance</t>
+  </si>
+  <si>
     <t>Pierres Precieuses</t>
   </si>
   <si>
-    <t>Résistance 3</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1129,6 +1202,9 @@
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
     <t>2024-11-22</t>
   </si>
   <si>
@@ -1141,10 +1217,13 @@
     <t>2024-12-06</t>
   </si>
   <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
     <t>2025-07-06</t>
   </si>
   <si>
-    <t>2024-03-31</t>
+    <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-06-22</t>
@@ -1165,10 +1244,16 @@
     <t>2025-01-31</t>
   </si>
   <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
     <t>2025-07-13</t>
   </si>
   <si>
-    <t>2025-07-09</t>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
   </si>
   <si>
     <t>2025-04-20</t>
@@ -1177,12 +1262,6 @@
     <t>2025-07-03</t>
   </si>
   <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
     <t>2024-12-02</t>
   </si>
   <si>
@@ -1190,9 +1269,6 @@
   </si>
   <si>
     <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2025-07-12</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI31"/>
+  <dimension ref="A1:CI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,28 +1915,28 @@
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>43920</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2">
         <v>43525.67803240741</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="M2" s="3">
         <v>32403</v>
@@ -1869,37 +1945,37 @@
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W2" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="X2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1920,16 +1996,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO2" s="3">
         <v>45763</v>
       </c>
       <c r="AP2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="AX2" s="3">
         <v>45418</v>
@@ -1944,10 +2020,10 @@
         <v>45429.55692129629</v>
       </c>
       <c r="BB2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BC2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="BD2" s="3">
         <v>45394</v>
@@ -1956,73 +2032,73 @@
         <v>10</v>
       </c>
       <c r="BF2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="BG2" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="BH2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="BI2" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="BJ2" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BN2" s="3">
         <v>45440</v>
       </c>
       <c r="BO2" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="BP2" s="3">
         <v>45490</v>
       </c>
       <c r="BQ2" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="BT2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BU2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="BW2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="BX2" s="3">
         <v>44166</v>
       </c>
       <c r="BZ2" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CB2" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="CC2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="CD2" s="2">
         <v>45418</v>
       </c>
       <c r="CE2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="CF2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG2" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH2" s="3">
         <v>45708</v>
@@ -2045,28 +2121,28 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>187714</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2">
         <v>45348.70815972222</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M3" s="3">
         <v>34151</v>
@@ -2075,37 +2151,37 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -2117,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2129,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO3" s="3">
         <v>45618</v>
       </c>
       <c r="AP3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ3" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="AV3">
         <v>1</v>
@@ -2156,37 +2232,37 @@
         <v>45348.7141087963</v>
       </c>
       <c r="BB3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC3" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="CD3" s="2">
         <v>45373</v>
       </c>
       <c r="CE3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH3" s="3">
         <v>45377</v>
       </c>
       <c r="CI3" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:87">
@@ -2203,28 +2279,28 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>26634</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I4" s="2">
         <v>42562.60099537037</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="M4" s="3">
         <v>27701</v>
@@ -2233,37 +2309,37 @@
         <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="X4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -2275,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2287,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO4" s="3">
         <v>45776</v>
       </c>
       <c r="AP4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="AX4" s="3">
         <v>45540</v>
@@ -2311,10 +2387,10 @@
         <v>45422.63403935185</v>
       </c>
       <c r="BB4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BC4" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="BD4" s="3">
         <v>45490</v>
@@ -2323,76 +2399,76 @@
         <v>10</v>
       </c>
       <c r="BF4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="BG4" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="BH4" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="BI4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="BJ4" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="BK4">
         <v>1</v>
       </c>
       <c r="BL4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BN4" s="3">
         <v>45533</v>
       </c>
       <c r="BP4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="BQ4" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="BT4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BU4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="BW4" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="BX4" s="3">
         <v>44162</v>
       </c>
       <c r="BZ4" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CB4" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="CC4" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="CD4" s="2">
         <v>45570</v>
       </c>
       <c r="CE4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="CF4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH4" s="3">
         <v>45408</v>
       </c>
       <c r="CI4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:87">
@@ -2409,28 +2485,28 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5">
         <v>209301</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I5" s="2">
         <v>45832.54972222223</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M5" s="3">
         <v>31818</v>
@@ -2439,37 +2515,37 @@
         <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q5" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X5" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y5" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -2490,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AN5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO5" s="3">
         <v>45818</v>
       </c>
       <c r="AP5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ5" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="AX5" s="3">
         <v>45693</v>
@@ -2514,31 +2590,31 @@
         <v>45832.55387731481</v>
       </c>
       <c r="BB5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL5" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB5" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC5" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="CD5" s="2">
         <v>45843</v>
       </c>
       <c r="CE5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG5" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:87">
@@ -2555,28 +2631,28 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>204117</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I6" s="2">
         <v>45741.53994212963</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M6" s="3">
         <v>33496</v>
@@ -2585,37 +2661,37 @@
         <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Z6" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -2633,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="AN6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO6" s="3">
         <v>45805</v>
       </c>
       <c r="AP6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ6" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="AV6">
         <v>1</v>
@@ -2660,31 +2736,31 @@
         <v>45749.5670949074</v>
       </c>
       <c r="BB6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB6" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC6" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="CD6" s="2">
         <v>45846</v>
       </c>
       <c r="CE6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH6" s="3">
         <v>45726</v>
@@ -2707,73 +2783,73 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G7">
-        <v>194528</v>
+        <v>107849</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I7" s="2">
-        <v>45489.76224537037</v>
+        <v>44291.73622685186</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M7" s="3">
-        <v>32119</v>
+        <v>35978</v>
       </c>
       <c r="N7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7" s="3">
-        <v>45474</v>
+        <v>45713</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2788,100 +2864,61 @@
         <v>0</v>
       </c>
       <c r="AN7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO7" s="3">
         <v>45750</v>
       </c>
       <c r="AP7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="AV7">
         <v>1</v>
       </c>
       <c r="AX7" s="3">
-        <v>45618</v>
+        <v>45853</v>
       </c>
       <c r="AY7" s="3">
-        <v>45268</v>
+        <v>45587</v>
       </c>
       <c r="AZ7" s="3">
-        <v>45474</v>
+        <v>45713</v>
       </c>
       <c r="BA7" s="2">
-        <v>45489.76390046296</v>
+        <v>45727.71408564815</v>
       </c>
       <c r="BB7" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>339</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>45550</v>
-      </c>
-      <c r="BE7">
-        <v>11</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>343</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>344</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>348</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BL7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM7" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>45580</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="CB7" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="CC7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="CD7" s="2">
-        <v>45550</v>
+        <v>45867</v>
       </c>
       <c r="CE7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CF7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CH7" s="3">
-        <v>45561</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>304</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="8" spans="1:87">
@@ -2889,79 +2926,82 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G8">
-        <v>201257</v>
+        <v>194528</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2">
-        <v>45680.79515046296</v>
+        <v>45489.76224537037</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M8" s="3">
-        <v>33691</v>
+        <v>32119</v>
       </c>
       <c r="N8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W8" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X8" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>306</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2976,67 +3016,100 @@
         <v>0</v>
       </c>
       <c r="AN8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO8" s="3">
-        <v>45729</v>
+        <v>45750</v>
       </c>
       <c r="AP8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AV8">
         <v>1</v>
       </c>
       <c r="AX8" s="3">
-        <v>45839</v>
+        <v>45618</v>
       </c>
       <c r="AY8" s="3">
-        <v>45569</v>
+        <v>45268</v>
       </c>
       <c r="AZ8" s="3">
-        <v>45642</v>
+        <v>45474</v>
       </c>
       <c r="BA8" s="2">
-        <v>45680.86460648148</v>
+        <v>45489.76390046296</v>
       </c>
       <c r="BB8" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>45550</v>
+      </c>
+      <c r="BE8">
+        <v>11</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>367</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
       </c>
       <c r="BL8" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM8" t="s">
-        <v>308</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>358</v>
+        <v>329</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>45580</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>374</v>
       </c>
       <c r="CB8" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="CC8" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="CD8" s="2">
-        <v>45849</v>
+        <v>45550</v>
       </c>
       <c r="CE8" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CF8" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG8" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>45561</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:87">
@@ -3053,73 +3126,70 @@
         <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G9">
-        <v>29502</v>
+        <v>201257</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2">
-        <v>42765.62567129629</v>
+        <v>45680.79515046296</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M9" s="3">
-        <v>30331</v>
+        <v>33691</v>
       </c>
       <c r="N9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="S9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X9" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -3134,79 +3204,67 @@
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO9" s="3">
         <v>45729</v>
       </c>
       <c r="AP9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ9" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>359</v>
       </c>
       <c r="AV9">
         <v>1</v>
       </c>
       <c r="AX9" s="3">
-        <v>45465</v>
+        <v>45839</v>
       </c>
       <c r="AY9" s="3">
-        <v>45179</v>
+        <v>45569</v>
       </c>
       <c r="AZ9" s="3">
-        <v>45341</v>
+        <v>45642</v>
       </c>
       <c r="BA9" s="2">
-        <v>45415.80556712963</v>
+        <v>45680.86460648148</v>
       </c>
       <c r="BB9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>351</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>355</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>44061</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>357</v>
+        <v>329</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>382</v>
       </c>
       <c r="CB9" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC9" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="CD9" s="2">
-        <v>45460</v>
+        <v>45849</v>
       </c>
       <c r="CE9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF9" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG9" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH9" s="3">
-        <v>45729</v>
-      </c>
-      <c r="CI9" s="3">
-        <v>45945</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:87">
@@ -3223,73 +3281,73 @@
         <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G10">
-        <v>174052</v>
+        <v>29502</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I10" s="2">
-        <v>44966.78353009259</v>
+        <v>42765.62567129629</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M10" s="3">
-        <v>32940</v>
+        <v>30331</v>
       </c>
       <c r="N10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y10" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10" s="3">
-        <v>44945</v>
+        <v>45341</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -3304,64 +3362,79 @@
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO10" s="3">
         <v>45729</v>
       </c>
       <c r="AP10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ10" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AV10">
         <v>1</v>
       </c>
       <c r="AX10" s="3">
-        <v>45574</v>
+        <v>45465</v>
       </c>
       <c r="AY10" s="3">
-        <v>45351</v>
+        <v>45179</v>
       </c>
       <c r="AZ10" s="3">
-        <v>45379</v>
+        <v>45341</v>
       </c>
       <c r="BA10" s="2">
-        <v>45429.79835648148</v>
+        <v>45415.80556712963</v>
       </c>
       <c r="BB10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM10" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>375</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX10" s="3">
+        <v>44061</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>381</v>
       </c>
       <c r="CB10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC10" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="CD10" s="2">
-        <v>45632</v>
+        <v>45460</v>
       </c>
       <c r="CE10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH10" s="3">
         <v>45729</v>
       </c>
       <c r="CI10" s="3">
-        <v>45946</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="11" spans="1:87">
@@ -3369,7 +3442,7 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>97</v>
@@ -3378,73 +3451,73 @@
         <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G11">
-        <v>199552</v>
+        <v>174052</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I11" s="2">
-        <v>45618.59185185185</v>
+        <v>44966.78353009259</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L11" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M11" s="3">
-        <v>32566</v>
+        <v>32940</v>
       </c>
       <c r="N11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="S11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X11" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11" s="3">
-        <v>45617</v>
+        <v>44945</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -3459,64 +3532,64 @@
         <v>0</v>
       </c>
       <c r="AN11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO11" s="3">
-        <v>45757</v>
+        <v>45729</v>
       </c>
       <c r="AP11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ11" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="AV11">
         <v>1</v>
       </c>
       <c r="AX11" s="3">
-        <v>45818</v>
+        <v>45574</v>
       </c>
       <c r="AY11" s="3">
-        <v>45564</v>
+        <v>45351</v>
       </c>
       <c r="AZ11" s="3">
-        <v>45617</v>
+        <v>45379</v>
       </c>
       <c r="BA11" s="2">
-        <v>45618.59543981482</v>
+        <v>45429.79835648148</v>
       </c>
       <c r="BB11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL11" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB11" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC11" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="CD11" s="2">
-        <v>45844</v>
+        <v>45632</v>
       </c>
       <c r="CE11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG11" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH11" s="3">
-        <v>45723</v>
+        <v>45729</v>
       </c>
       <c r="CI11" s="3">
-        <v>45989</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="12" spans="1:87">
@@ -3533,28 +3606,28 @@
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G12">
         <v>197556</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I12" s="2">
         <v>45590.5246412037</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M12" s="3">
         <v>30945</v>
@@ -3563,34 +3636,34 @@
         <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q12" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="S12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X12" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -3611,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO12" s="3">
         <v>45757</v>
       </c>
       <c r="AP12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ12" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -3638,31 +3711,31 @@
         <v>45705.77799768518</v>
       </c>
       <c r="BB12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL12" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB12" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC12" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="CD12" s="2">
         <v>45382</v>
       </c>
       <c r="CE12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG12" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH12" s="3">
         <v>45729</v>
@@ -3676,82 +3749,82 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G13">
-        <v>204291</v>
+        <v>199552</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I13" s="2">
-        <v>45743.79086805556</v>
+        <v>45618.59185185185</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M13" s="3">
-        <v>38637</v>
+        <v>32566</v>
       </c>
       <c r="N13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q13" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="S13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T13" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y13" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13" s="3">
-        <v>45712</v>
+        <v>45617</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3766,58 +3839,64 @@
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO13" s="3">
-        <v>45854</v>
+        <v>45757</v>
       </c>
       <c r="AP13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ13" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="AV13">
         <v>1</v>
       </c>
       <c r="AX13" s="3">
-        <v>45830</v>
+        <v>45818</v>
       </c>
       <c r="AY13" s="3">
-        <v>45550</v>
+        <v>45564</v>
       </c>
       <c r="AZ13" s="3">
-        <v>45712</v>
+        <v>45617</v>
       </c>
       <c r="BA13" s="2">
-        <v>45743.79511574074</v>
+        <v>45618.59543981482</v>
       </c>
       <c r="BB13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB13" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC13" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="CD13" s="2">
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="CE13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG13" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CH13" s="3">
+        <v>45723</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>45989</v>
       </c>
     </row>
     <row r="14" spans="1:87">
@@ -3831,79 +3910,73 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G14">
-        <v>49927</v>
+        <v>202466</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I14" s="2">
-        <v>43816.66765046296</v>
+        <v>45713.70381944445</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M14" s="3">
-        <v>31890</v>
+        <v>30147</v>
       </c>
       <c r="N14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W14" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X14" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14" s="3">
-        <v>45742</v>
+        <v>45708</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3918,82 +3991,58 @@
         <v>0</v>
       </c>
       <c r="AN14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO14" s="3">
-        <v>45854</v>
+        <v>45729</v>
       </c>
       <c r="AP14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ14" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="AV14">
         <v>1</v>
       </c>
       <c r="AX14" s="3">
-        <v>45799</v>
+        <v>45860</v>
       </c>
       <c r="AY14" s="3">
-        <v>45519</v>
+        <v>45580</v>
       </c>
       <c r="AZ14" s="3">
-        <v>45742</v>
+        <v>45708</v>
       </c>
       <c r="BA14" s="2">
-        <v>45744.6271875</v>
+        <v>45713.70552083333</v>
       </c>
       <c r="BB14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM14" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>351</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>356</v>
-      </c>
-      <c r="BX14" s="3">
-        <v>43963</v>
-      </c>
-      <c r="BY14" s="3">
-        <v>43863</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CB14" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="CC14" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="CD14" s="2">
-        <v>45799</v>
+        <v>45860</v>
       </c>
       <c r="CE14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG14" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH14" s="3">
-        <v>45625</v>
-      </c>
-      <c r="CI14" s="3">
-        <v>45821</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:87">
@@ -4001,7 +4050,7 @@
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -4010,73 +4059,73 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G15">
-        <v>31268</v>
+        <v>204291</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I15" s="2">
-        <v>42858.53824074074</v>
+        <v>45743.79086805556</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M15" s="3">
-        <v>32918</v>
+        <v>38637</v>
       </c>
       <c r="N15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="S15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T15" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X15" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y15" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15" s="3">
-        <v>45453</v>
+        <v>45712</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -4088,121 +4137,67 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO15" s="3">
-        <v>45631</v>
+        <v>45854</v>
       </c>
       <c r="AP15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ15" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AV15">
         <v>1</v>
       </c>
       <c r="AX15" s="3">
-        <v>45679</v>
+        <v>45830</v>
       </c>
       <c r="AY15" s="3">
-        <v>45397</v>
+        <v>45550</v>
       </c>
       <c r="AZ15" s="3">
-        <v>45453</v>
+        <v>45712</v>
       </c>
       <c r="BA15" s="2">
-        <v>45499.54865740741</v>
+        <v>45743.79511574074</v>
       </c>
       <c r="BB15" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>340</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>45596</v>
-      </c>
-      <c r="BE15">
-        <v>10</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>342</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>344</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK15">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BL15" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM15" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN15" s="3">
-        <v>45644</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>349</v>
-      </c>
-      <c r="BP15" s="3">
-        <v>45679</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>350</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>352</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX15" s="3">
-        <v>44118</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="CB15" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="CC15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="CD15" s="2">
-        <v>45679</v>
+        <v>45830</v>
       </c>
       <c r="CE15" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CF15" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG15" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH15" s="3">
-        <v>45644</v>
+        <v>45712</v>
       </c>
       <c r="CI15" s="3">
-        <v>45749</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="16" spans="1:87">
@@ -4216,205 +4211,169 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G16">
-        <v>28564</v>
+        <v>49927</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I16" s="2">
-        <v>42695.55586805556</v>
+        <v>43816.66765046296</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M16" s="3">
-        <v>32485</v>
+        <v>31890</v>
       </c>
       <c r="N16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="S16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="T16" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="U16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X16" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y16" t="s">
-        <v>292</v>
+        <v>311</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>322</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16" s="3">
-        <v>45533</v>
+        <v>45742</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AG16" t="s">
-        <v>272</v>
-      </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>44148</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO16" s="3">
-        <v>45764</v>
+        <v>45854</v>
       </c>
       <c r="AP16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ16" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AV16">
         <v>1</v>
       </c>
       <c r="AX16" s="3">
-        <v>45587</v>
+        <v>45799</v>
       </c>
       <c r="AY16" s="3">
-        <v>45306</v>
+        <v>45519</v>
       </c>
       <c r="AZ16" s="3">
-        <v>45533</v>
+        <v>45742</v>
       </c>
       <c r="BA16" s="2">
-        <v>45534.68231481482</v>
+        <v>45744.6271875</v>
       </c>
       <c r="BB16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD16" s="3">
-        <v>45557</v>
-      </c>
-      <c r="BE16">
-        <v>10</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>342</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK16">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="BL16" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN16" s="3">
-        <v>45603</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="BT16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="BU16" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="BW16" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="BX16" s="3">
-        <v>44146</v>
+        <v>43963</v>
+      </c>
+      <c r="BY16" s="3">
+        <v>43863</v>
       </c>
       <c r="BZ16" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="CB16" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="CC16" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="CD16" s="2">
-        <v>45587</v>
+        <v>45799</v>
       </c>
       <c r="CE16" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="CF16" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG16" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH16" s="3">
-        <v>45667</v>
+        <v>45807</v>
       </c>
       <c r="CI16" s="3">
-        <v>45818</v>
+        <v>46003</v>
       </c>
     </row>
     <row r="17" spans="1:87">
@@ -4422,92 +4381,86 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17">
-        <v>36798</v>
+        <v>31268</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I17" s="2">
-        <v>43137.83925925926</v>
+        <v>42858.53824074074</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L17" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M17" s="3">
-        <v>32874</v>
+        <v>32918</v>
       </c>
       <c r="N17">
         <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="S17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17" s="3">
-        <v>45427</v>
+        <v>45453</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AG17" t="s">
-        <v>272</v>
-      </c>
       <c r="AH17">
         <v>0</v>
       </c>
@@ -4515,82 +4468,121 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO17" s="3">
-        <v>45622</v>
+        <v>45631</v>
       </c>
       <c r="AP17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ17" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="AV17">
         <v>1</v>
       </c>
       <c r="AX17" s="3">
-        <v>45495</v>
+        <v>45679</v>
       </c>
       <c r="AY17" s="3">
-        <v>45214</v>
+        <v>45397</v>
       </c>
       <c r="AZ17" s="3">
-        <v>45427</v>
+        <v>45453</v>
       </c>
       <c r="BA17" s="2">
-        <v>45483.59184027778</v>
+        <v>45499.54865740741</v>
       </c>
       <c r="BB17" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>45596</v>
+      </c>
+      <c r="BE17">
+        <v>10</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>369</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>371</v>
+      </c>
+      <c r="BK17">
+        <v>1</v>
       </c>
       <c r="BL17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM17" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>45644</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>373</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>45679</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>374</v>
       </c>
       <c r="BT17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="BU17" t="s">
-        <v>351</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>355</v>
+        <v>376</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>377</v>
       </c>
       <c r="BX17" s="3">
-        <v>44152</v>
+        <v>44118</v>
       </c>
       <c r="BZ17" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="CB17" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="CC17" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="CD17" s="2">
-        <v>45495</v>
+        <v>45679</v>
       </c>
       <c r="CE17" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CF17" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG17" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH17" s="3">
-        <v>45134</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>304</v>
+        <v>45644</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>45749</v>
       </c>
     </row>
     <row r="18" spans="1:87">
@@ -4598,159 +4590,216 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G18">
-        <v>125137</v>
+        <v>28564</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I18" s="2">
-        <v>44468.77130787037</v>
+        <v>42695.55586805556</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M18" s="3">
-        <v>33302</v>
+        <v>32485</v>
       </c>
       <c r="N18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="S18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="T18" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="U18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y18" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AG18" t="s">
+        <v>293</v>
+      </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>44148</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO18" s="3">
-        <v>45727</v>
+        <v>45764</v>
       </c>
       <c r="AP18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ18" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AV18">
         <v>1</v>
       </c>
       <c r="AX18" s="3">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="AY18" s="3">
-        <v>45406</v>
+        <v>45306</v>
       </c>
       <c r="AZ18" s="3">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="BA18" s="2">
-        <v>45692.64329861111</v>
+        <v>45534.68231481482</v>
       </c>
       <c r="BB18" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>45557</v>
+      </c>
+      <c r="BE18">
+        <v>10</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>370</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>371</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
       </c>
       <c r="BL18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM18" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>45603</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>374</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>375</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX18" s="3">
+        <v>44146</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>381</v>
       </c>
       <c r="CB18" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="CC18" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="CD18" s="2">
-        <v>45688</v>
+        <v>45587</v>
       </c>
       <c r="CE18" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="CF18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH18" s="3">
-        <v>45348</v>
+        <v>45667</v>
       </c>
       <c r="CI18" s="3">
-        <v>45863</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="19" spans="1:87">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -4759,70 +4808,73 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G19">
-        <v>106990</v>
+        <v>204369</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I19" s="2">
-        <v>44262.65186342593</v>
+        <v>45744.67241898148</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="M19" s="3">
-        <v>36357</v>
+        <v>33773</v>
       </c>
       <c r="N19">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>287</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X19" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19" s="3">
-        <v>44249</v>
+        <v>45743</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -4837,60 +4889,63 @@
         <v>0</v>
       </c>
       <c r="AN19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO19" s="3">
-        <v>45799</v>
+        <v>45832</v>
       </c>
       <c r="AP19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ19" t="s">
-        <v>324</v>
+        <v>344</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
       </c>
       <c r="AX19" s="3">
-        <v>45849</v>
+        <v>45860</v>
       </c>
       <c r="AY19" s="3">
-        <v>45571</v>
+        <v>45580</v>
       </c>
       <c r="AZ19" s="3">
-        <v>45645</v>
+        <v>45743</v>
       </c>
       <c r="BA19" s="2">
-        <v>45792.62974537037</v>
+        <v>45744.67391203704</v>
       </c>
       <c r="BB19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB19" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC19" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="CD19" s="2">
-        <v>45851</v>
+        <v>45860</v>
       </c>
       <c r="CE19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG19" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:87">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -4899,80 +4954,86 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20">
-        <v>201086</v>
+        <v>36798</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I20" s="2">
-        <v>45646.6363425926</v>
+        <v>43137.83925925926</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M20" s="3">
-        <v>34740</v>
+        <v>32874</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X20" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y20" t="s">
-        <v>295</v>
+        <v>314</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>323</v>
       </c>
       <c r="AA20">
         <v>1</v>
       </c>
       <c r="AB20" s="3">
-        <v>45646</v>
+        <v>45427</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AG20" t="s">
+        <v>293</v>
+      </c>
       <c r="AH20">
         <v>0</v>
       </c>
@@ -4983,144 +5044,162 @@
         <v>0</v>
       </c>
       <c r="AN20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO20" s="3">
-        <v>45757</v>
+        <v>45622</v>
       </c>
       <c r="AP20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ20" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AV20">
         <v>1</v>
       </c>
       <c r="AX20" s="3">
-        <v>45847</v>
+        <v>45495</v>
       </c>
       <c r="AY20" s="3">
-        <v>45567</v>
+        <v>45214</v>
       </c>
       <c r="AZ20" s="3">
-        <v>45637</v>
+        <v>45427</v>
       </c>
       <c r="BA20" s="2">
-        <v>45646.63934027778</v>
+        <v>45483.59184027778</v>
       </c>
       <c r="BB20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL20" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM20" t="s">
-        <v>308</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>358</v>
+        <v>329</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>375</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX20" s="3">
+        <v>44152</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>381</v>
       </c>
       <c r="CB20" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC20" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="CD20" s="2">
-        <v>45847</v>
+        <v>45495</v>
       </c>
       <c r="CE20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF20" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG20" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CH20" s="3">
+        <v>45134</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:87">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21">
-        <v>24009</v>
+        <v>125137</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I21" s="2">
-        <v>42411.69771990741</v>
+        <v>44468.77130787037</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M21" s="3">
-        <v>36255</v>
+        <v>33302</v>
       </c>
       <c r="N21">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="O21" t="s">
+        <v>289</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W21" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X21" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>315</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AB21" t="s">
-        <v>304</v>
+      <c r="AB21" s="3">
+        <v>45528</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -5135,55 +5214,64 @@
         <v>0</v>
       </c>
       <c r="AN21" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO21" s="3">
-        <v>45730</v>
+        <v>45727</v>
       </c>
       <c r="AP21" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ21" t="s">
-        <v>326</v>
+        <v>346</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
       </c>
       <c r="AX21" s="3">
-        <v>45767</v>
+        <v>45688</v>
       </c>
       <c r="AY21" s="3">
-        <v>45486</v>
+        <v>45406</v>
       </c>
       <c r="AZ21" s="3">
-        <v>45561</v>
+        <v>45528</v>
       </c>
       <c r="BA21" s="2">
-        <v>45770.62432870371</v>
+        <v>45692.64329861111</v>
       </c>
       <c r="BB21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL21" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="BM21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB21" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC21" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="CD21" s="2">
-        <v>45767</v>
+        <v>45688</v>
       </c>
       <c r="CE21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG21" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CH21" s="3">
+        <v>45348</v>
+      </c>
+      <c r="CI21" s="3">
+        <v>45863</v>
       </c>
     </row>
     <row r="22" spans="1:87">
@@ -5191,73 +5279,82 @@
         <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22">
-        <v>105496</v>
+        <v>201086</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I22" s="2">
-        <v>44187.98162037037</v>
+        <v>45646.6363425926</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M22" s="3">
-        <v>34700</v>
+        <v>34740</v>
       </c>
       <c r="N22">
         <v>30</v>
       </c>
+      <c r="O22" t="s">
+        <v>290</v>
+      </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W22" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X22" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>316</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>45646</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -5272,58 +5369,67 @@
         <v>0</v>
       </c>
       <c r="AN22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO22" s="3">
-        <v>45819</v>
+        <v>45757</v>
       </c>
       <c r="AP22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ22" t="s">
-        <v>326</v>
+        <v>347</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
       </c>
       <c r="AX22" s="3">
-        <v>45827</v>
+        <v>45847</v>
       </c>
       <c r="AY22" s="3">
-        <v>45561</v>
+        <v>45567</v>
       </c>
       <c r="AZ22" s="3">
-        <v>45596</v>
+        <v>45637</v>
       </c>
       <c r="BA22" s="2">
-        <v>45770.62298611111</v>
+        <v>45646.63934027778</v>
       </c>
       <c r="BB22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL22" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM22" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>382</v>
       </c>
       <c r="CB22" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC22" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="CD22" s="2">
-        <v>45841</v>
+        <v>45847</v>
       </c>
       <c r="CE22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF22" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG22" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH22" s="3">
-        <v>44692</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:87">
@@ -5331,79 +5437,76 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G23">
-        <v>186339</v>
+        <v>106990</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I23" s="2">
-        <v>45309.74211805555</v>
+        <v>44262.65186342593</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M23" s="3">
-        <v>33095</v>
+        <v>36357</v>
       </c>
       <c r="N23">
-        <v>34</v>
-      </c>
-      <c r="O23" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X23" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
-      <c r="AB23" t="s">
-        <v>304</v>
+      <c r="AB23" s="3">
+        <v>44249</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -5418,55 +5521,55 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO23" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="AP23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ23" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="AX23" s="3">
-        <v>45804</v>
+        <v>45849</v>
       </c>
       <c r="AY23" s="3">
-        <v>45524</v>
+        <v>45571</v>
       </c>
       <c r="AZ23" s="3">
-        <v>45065</v>
+        <v>45645</v>
       </c>
       <c r="BA23" s="2">
-        <v>45770.56618055556</v>
+        <v>45792.62974537037</v>
       </c>
       <c r="BB23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL23" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB23" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC23" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="CD23" s="2">
-        <v>45804</v>
+        <v>45851</v>
       </c>
       <c r="CE23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG23" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:87">
@@ -5483,28 +5586,28 @@
         <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G24">
         <v>186134</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I24" s="2">
         <v>45300.80584490741</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M24" s="3">
         <v>33764</v>
@@ -5513,31 +5616,31 @@
         <v>33</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q24" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X24" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -5555,16 +5658,16 @@
         <v>0</v>
       </c>
       <c r="AN24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO24" s="3">
         <v>45819</v>
       </c>
       <c r="AP24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ24" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AX24" s="3">
         <v>45814</v>
@@ -5579,31 +5682,31 @@
         <v>45770.56368055556</v>
       </c>
       <c r="BB24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL24" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB24" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC24" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="CD24" s="2">
         <v>45813</v>
       </c>
       <c r="CE24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG24" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:87">
@@ -5611,83 +5714,83 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G25">
-        <v>31860</v>
+        <v>186339</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I25" s="2">
-        <v>42879.80571759259</v>
+        <v>45309.74211805555</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M25" s="3">
-        <v>30932</v>
+        <v>33095</v>
       </c>
       <c r="N25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q25" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W25" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="X25" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>325</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AG25" t="s">
-        <v>272</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -5698,76 +5801,55 @@
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AO25" s="3">
-        <v>45771</v>
+        <v>45819</v>
       </c>
       <c r="AP25" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ25" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AX25" s="3">
-        <v>45849</v>
+        <v>45804</v>
       </c>
       <c r="AY25" s="3">
-        <v>45569</v>
+        <v>45524</v>
       </c>
       <c r="AZ25" s="3">
-        <v>45617</v>
+        <v>45065</v>
       </c>
       <c r="BA25" s="2">
-        <v>45632.06791666667</v>
+        <v>45770.56618055556</v>
       </c>
       <c r="BB25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL25" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM25" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>170</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>351</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>354</v>
-      </c>
-      <c r="BX25" s="3">
-        <v>44147</v>
-      </c>
-      <c r="BZ25" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="CB25" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC25" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="CD25" s="2">
-        <v>45849</v>
+        <v>45804</v>
       </c>
       <c r="CE25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF25" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG25" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH25" s="3">
-        <v>45782</v>
-      </c>
-      <c r="CI25" s="3">
-        <v>45840</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:87">
@@ -5775,82 +5857,76 @@
         <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G26">
-        <v>194855</v>
+        <v>24009</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I26" s="2">
-        <v>45530.64438657407</v>
+        <v>42411.69771990741</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M26" s="3">
-        <v>33210</v>
+        <v>36255</v>
       </c>
       <c r="N26">
-        <v>34</v>
-      </c>
-      <c r="O26" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X26" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
-      <c r="AB26" s="3">
-        <v>45463</v>
+      <c r="AB26" t="s">
+        <v>325</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -5865,61 +5941,55 @@
         <v>0</v>
       </c>
       <c r="AN26" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO26" s="3">
-        <v>45754</v>
+        <v>45730</v>
       </c>
       <c r="AP26" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ26" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AX26" s="3">
-        <v>45627</v>
+        <v>45767</v>
       </c>
       <c r="AY26" s="3">
-        <v>45347</v>
+        <v>45486</v>
       </c>
       <c r="AZ26" s="3">
-        <v>45456</v>
+        <v>45561</v>
       </c>
       <c r="BA26" s="2">
-        <v>45530.66886574074</v>
+        <v>45770.62432870371</v>
       </c>
       <c r="BB26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL26" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="BM26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB26" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC26" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="CD26" s="2">
-        <v>45628</v>
+        <v>45767</v>
       </c>
       <c r="CE26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG26" t="s">
-        <v>308</v>
-      </c>
-      <c r="CH26" s="3">
-        <v>45530</v>
-      </c>
-      <c r="CI26" s="3">
-        <v>45573</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:87">
@@ -5927,82 +5997,73 @@
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G27">
-        <v>192006</v>
+        <v>105496</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I27" s="2">
-        <v>45425.68738425926</v>
+        <v>44187.98162037037</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M27" s="3">
-        <v>30664</v>
+        <v>34700</v>
       </c>
       <c r="N27">
-        <v>41</v>
-      </c>
-      <c r="O27" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q27" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X27" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>45392</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -6017,64 +6078,58 @@
         <v>0</v>
       </c>
       <c r="AN27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO27" s="3">
-        <v>45707</v>
+        <v>45819</v>
       </c>
       <c r="AP27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ27" t="s">
-        <v>329</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="AX27" s="3">
-        <v>45628</v>
+        <v>45827</v>
       </c>
       <c r="AY27" s="3">
-        <v>45347</v>
+        <v>45561</v>
       </c>
       <c r="AZ27" s="3">
-        <v>45392</v>
+        <v>45596</v>
       </c>
       <c r="BA27" s="2">
-        <v>45425.68949074074</v>
+        <v>45770.62298611111</v>
       </c>
       <c r="BB27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL27" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB27" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC27" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="CD27" s="2">
-        <v>45628</v>
+        <v>45841</v>
       </c>
       <c r="CE27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG27" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH27" s="3">
-        <v>45523</v>
-      </c>
-      <c r="CI27" s="3">
-        <v>45552</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="28" spans="1:87">
@@ -6082,73 +6137,82 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28">
-        <v>183731</v>
+        <v>209198</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I28" s="2">
-        <v>45204.62074074074</v>
+        <v>45804.00541666667</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M28" s="3">
-        <v>34135</v>
+        <v>37257</v>
       </c>
       <c r="N28">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="O28" t="s">
+        <v>292</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q28" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X28" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>317</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>45714</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -6163,55 +6227,55 @@
         <v>0</v>
       </c>
       <c r="AN28" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO28" s="3">
-        <v>45709</v>
+        <v>45799</v>
       </c>
       <c r="AP28" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ28" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AX28" s="3">
-        <v>45395</v>
+        <v>45860</v>
       </c>
       <c r="AY28" s="3">
-        <v>45127</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>304</v>
+        <v>45580</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>45714</v>
       </c>
       <c r="BA28" s="2">
-        <v>45204.62678240741</v>
+        <v>45804.5272800926</v>
       </c>
       <c r="BB28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL28" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="BM28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB28" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC28" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="CD28" s="2">
-        <v>45409</v>
+        <v>45860</v>
       </c>
       <c r="CE28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:87">
@@ -6219,7 +6283,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
@@ -6228,67 +6292,64 @@
         <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G29">
-        <v>177881</v>
+        <v>31860</v>
       </c>
       <c r="H29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I29" s="2">
-        <v>45034.66113425926</v>
+        <v>42879.80571759259</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="M29" s="3">
-        <v>32137</v>
+        <v>30932</v>
       </c>
       <c r="N29">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q29" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V29" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -6296,6 +6357,9 @@
       <c r="AC29">
         <v>0</v>
       </c>
+      <c r="AG29" t="s">
+        <v>293</v>
+      </c>
       <c r="AH29">
         <v>0</v>
       </c>
@@ -6306,64 +6370,76 @@
         <v>0</v>
       </c>
       <c r="AN29" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AO29" s="3">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="AP29" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ29" t="s">
-        <v>331</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="AX29" s="3">
-        <v>45753</v>
+        <v>45849</v>
       </c>
       <c r="AY29" s="3">
-        <v>45473</v>
+        <v>45569</v>
       </c>
       <c r="AZ29" s="3">
-        <v>45519</v>
+        <v>45617</v>
       </c>
       <c r="BA29" s="2">
-        <v>45548.69295138889</v>
+        <v>45632.06791666667</v>
       </c>
       <c r="BB29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL29" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM29" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>375</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX29" s="3">
+        <v>44147</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>381</v>
       </c>
       <c r="CB29" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC29" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="CD29" s="2">
-        <v>45753</v>
+        <v>45849</v>
       </c>
       <c r="CE29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG29" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH29" s="3">
-        <v>45685</v>
+        <v>45782</v>
       </c>
       <c r="CI29" s="3">
-        <v>45768</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="30" spans="1:87">
@@ -6371,82 +6447,82 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G30">
-        <v>160476</v>
+        <v>194855</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I30" s="2">
-        <v>44708.61177083333</v>
+        <v>45530.64438657407</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M30" s="3">
-        <v>33675</v>
+        <v>33210</v>
       </c>
       <c r="N30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O30" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30" s="3">
-        <v>44662</v>
+        <v>45463</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -6461,61 +6537,61 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO30" s="3">
-        <v>45742</v>
+        <v>45754</v>
       </c>
       <c r="AP30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ30" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="AX30" s="3">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="AY30" s="3">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="AZ30" s="3">
-        <v>45461</v>
+        <v>45456</v>
       </c>
       <c r="BA30" s="2">
-        <v>45536.06923611111</v>
+        <v>45530.66886574074</v>
       </c>
       <c r="BB30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL30" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB30" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC30" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="CD30" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="CE30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG30" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH30" s="3">
-        <v>45554</v>
+        <v>45530</v>
       </c>
       <c r="CI30" s="3">
-        <v>45554</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="31" spans="1:87">
@@ -6523,79 +6599,82 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G31">
-        <v>175111</v>
+        <v>192006</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I31" s="2">
-        <v>44984.69831018519</v>
+        <v>45425.68738425926</v>
       </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="M31" s="3">
-        <v>30719</v>
+        <v>30664</v>
       </c>
       <c r="N31">
         <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q31" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="T31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="U31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="V31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>45392</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -6610,61 +6689,642 @@
         <v>0</v>
       </c>
       <c r="AN31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AO31" s="3">
-        <v>45771</v>
+        <v>45707</v>
       </c>
       <c r="AP31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AQ31" t="s">
-        <v>333</v>
+        <v>353</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
       </c>
       <c r="AX31" s="3">
-        <v>45850</v>
+        <v>45628</v>
       </c>
       <c r="AY31" s="3">
-        <v>45570</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>304</v>
+        <v>45347</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>45392</v>
       </c>
       <c r="BA31" s="2">
-        <v>45761.69460648148</v>
+        <v>45425.68949074074</v>
       </c>
       <c r="BB31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="BL31" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="BM31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CB31" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="CC31" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="CD31" s="2">
-        <v>45850</v>
+        <v>45628</v>
       </c>
       <c r="CE31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CF31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CG31" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="CH31" s="3">
-        <v>45701</v>
+        <v>45523</v>
       </c>
       <c r="CI31" s="3">
-        <v>45790</v>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:87">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32">
+        <v>183731</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="2">
+        <v>45204.62074074074</v>
+      </c>
+      <c r="J32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" s="3">
+        <v>34135</v>
+      </c>
+      <c r="N32">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>298</v>
+      </c>
+      <c r="R32" t="s">
+        <v>299</v>
+      </c>
+      <c r="S32" t="s">
+        <v>299</v>
+      </c>
+      <c r="T32" t="s">
+        <v>299</v>
+      </c>
+      <c r="U32" t="s">
+        <v>299</v>
+      </c>
+      <c r="V32" t="s">
+        <v>299</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>45709</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>45395</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>45127</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>45204.62678240741</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>293</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>390</v>
+      </c>
+      <c r="CD32" s="2">
+        <v>45409</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:87">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>177881</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="2">
+        <v>45034.66113425926</v>
+      </c>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" s="3">
+        <v>32137</v>
+      </c>
+      <c r="N33">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>298</v>
+      </c>
+      <c r="R33" t="s">
+        <v>299</v>
+      </c>
+      <c r="S33" t="s">
+        <v>299</v>
+      </c>
+      <c r="T33" t="s">
+        <v>299</v>
+      </c>
+      <c r="U33" t="s">
+        <v>299</v>
+      </c>
+      <c r="V33" t="s">
+        <v>299</v>
+      </c>
+      <c r="W33" t="s">
+        <v>299</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>45772</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="3">
+        <v>45753</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>45473</v>
+      </c>
+      <c r="AZ33" s="3">
+        <v>45519</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>45548.69295138889</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>293</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>415</v>
+      </c>
+      <c r="CD33" s="2">
+        <v>45753</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH33" s="3">
+        <v>45685</v>
+      </c>
+      <c r="CI33" s="3">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:87">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>107085</v>
+      </c>
+      <c r="H34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44264.84422453704</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" s="3">
+        <v>30932</v>
+      </c>
+      <c r="N34">
+        <v>40</v>
+      </c>
+      <c r="P34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>298</v>
+      </c>
+      <c r="R34" t="s">
+        <v>299</v>
+      </c>
+      <c r="S34" t="s">
+        <v>299</v>
+      </c>
+      <c r="T34" t="s">
+        <v>299</v>
+      </c>
+      <c r="U34" t="s">
+        <v>299</v>
+      </c>
+      <c r="V34" t="s">
+        <v>299</v>
+      </c>
+      <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>45834</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX34" s="3">
+        <v>45860</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>45580</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>45803.98542824074</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>293</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD34" s="2">
+        <v>45860</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:87">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35">
+        <v>160476</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44708.61177083333</v>
+      </c>
+      <c r="J35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" s="3">
+        <v>33675</v>
+      </c>
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>297</v>
+      </c>
+      <c r="P35" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>298</v>
+      </c>
+      <c r="R35" t="s">
+        <v>299</v>
+      </c>
+      <c r="S35" t="s">
+        <v>299</v>
+      </c>
+      <c r="T35" t="s">
+        <v>299</v>
+      </c>
+      <c r="U35" t="s">
+        <v>299</v>
+      </c>
+      <c r="V35" t="s">
+        <v>299</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>44662</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>45742</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>45625</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>45344</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>45461</v>
+      </c>
+      <c r="BA35" s="2">
+        <v>45536.06923611111</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>293</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>416</v>
+      </c>
+      <c r="CD35" s="2">
+        <v>45625</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH35" s="3">
+        <v>45554</v>
+      </c>
+      <c r="CI35" s="3">
+        <v>45554</v>
       </c>
     </row>
   </sheetData>
